--- a/utils/落花-统计打卡.xlsx
+++ b/utils/落花-统计打卡.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="461">
   <si>
     <t>QQ</t>
   </si>
@@ -874,7 +874,28 @@
     <t>落花@楚锦妮</t>
   </si>
   <si>
-    <t>是否在盟</t>
+    <t>Last_Update：</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
   <si>
     <t>ฅ稷晞</t>
@@ -1385,12 +1406,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1423,6 +1446,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1437,23 +1551,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1461,83 +1560,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,8 +1573,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1579,7 +1602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,7 +1626,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,73 +1752,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,79 +1776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,24 +1841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1847,6 +1852,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1866,28 +1921,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1896,22 +1934,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,10 +1944,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1933,16 +1956,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1954,116 +1977,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="13">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2105,8 +2128,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2547,7 +2579,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2672,7 +2704,7 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="24">
         <v>11</v>
       </c>
       <c r="D3">
@@ -2685,7 +2717,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="21">
+      <c r="I3" s="24">
         <v>15</v>
       </c>
       <c r="J3" s="4">
@@ -2699,7 +2731,7 @@
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="21">
+      <c r="O3" s="24">
         <v>15</v>
       </c>
       <c r="P3" s="4">
@@ -2713,7 +2745,7 @@
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="21">
+      <c r="U3" s="24">
         <v>10</v>
       </c>
       <c r="V3" s="4">
@@ -2727,13 +2759,13 @@
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="5"/>
-      <c r="AA3" s="21"/>
+      <c r="AA3" s="24"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="5"/>
-      <c r="AG3" s="21"/>
+      <c r="AG3" s="24"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
@@ -2755,7 +2787,7 @@
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="24">
         <v>10</v>
       </c>
       <c r="D4">
@@ -2768,7 +2800,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="21">
+      <c r="I4" s="24">
         <v>10</v>
       </c>
       <c r="J4" s="4">
@@ -2782,7 +2814,7 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="21">
+      <c r="O4" s="24">
         <v>10</v>
       </c>
       <c r="P4" s="4">
@@ -2796,19 +2828,19 @@
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="21"/>
+      <c r="U4" s="24"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="21"/>
+      <c r="AA4" s="24"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="5"/>
-      <c r="AG4" s="21"/>
+      <c r="AG4" s="24"/>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
@@ -2830,7 +2862,7 @@
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="24">
         <v>10</v>
       </c>
       <c r="D5">
@@ -2843,7 +2875,7 @@
         <v>22</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="21">
+      <c r="I5" s="24">
         <v>10</v>
       </c>
       <c r="J5" s="4">
@@ -2857,7 +2889,7 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="21">
+      <c r="O5" s="24">
         <v>10</v>
       </c>
       <c r="P5" s="4">
@@ -2871,7 +2903,7 @@
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="21">
+      <c r="U5" s="24">
         <v>10</v>
       </c>
       <c r="V5" s="4">
@@ -2885,13 +2917,13 @@
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="21"/>
+      <c r="AA5" s="24"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="5"/>
-      <c r="AG5" s="21"/>
+      <c r="AG5" s="24"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
@@ -2913,7 +2945,7 @@
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="24">
         <v>10</v>
       </c>
       <c r="D6">
@@ -2926,7 +2958,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="21">
+      <c r="I6" s="24">
         <v>12</v>
       </c>
       <c r="J6" s="4">
@@ -2940,7 +2972,7 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="21">
+      <c r="O6" s="24">
         <v>15</v>
       </c>
       <c r="P6" s="4">
@@ -2954,7 +2986,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="21">
+      <c r="U6" s="24">
         <v>11</v>
       </c>
       <c r="V6" s="4">
@@ -2968,13 +3000,13 @@
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="5"/>
-      <c r="AA6" s="21"/>
+      <c r="AA6" s="24"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="5"/>
-      <c r="AG6" s="21"/>
+      <c r="AG6" s="24"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
@@ -2996,7 +3028,7 @@
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="24">
         <v>10</v>
       </c>
       <c r="D7">
@@ -3009,7 +3041,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="21">
+      <c r="I7" s="24">
         <v>10</v>
       </c>
       <c r="J7" s="4">
@@ -3023,7 +3055,7 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="21">
+      <c r="O7" s="24">
         <v>11</v>
       </c>
       <c r="P7" s="4">
@@ -3037,7 +3069,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="21">
+      <c r="U7" s="24">
         <v>11</v>
       </c>
       <c r="V7" s="4">
@@ -3051,13 +3083,13 @@
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="21"/>
+      <c r="AA7" s="24"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="5"/>
-      <c r="AG7" s="21"/>
+      <c r="AG7" s="24"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
@@ -3079,7 +3111,7 @@
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="24">
         <v>10</v>
       </c>
       <c r="D8">
@@ -3092,7 +3124,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="21">
+      <c r="I8" s="24">
         <v>10</v>
       </c>
       <c r="J8" s="4">
@@ -3106,7 +3138,7 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="21">
+      <c r="O8" s="24">
         <v>10</v>
       </c>
       <c r="P8" s="4">
@@ -3120,7 +3152,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="21">
+      <c r="U8" s="24">
         <v>10</v>
       </c>
       <c r="V8" s="4">
@@ -3134,13 +3166,13 @@
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="5"/>
-      <c r="AA8" s="21"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="21"/>
+      <c r="AG8" s="24"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
@@ -3162,7 +3194,7 @@
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="24">
         <v>10</v>
       </c>
       <c r="D9">
@@ -3175,7 +3207,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="21">
+      <c r="I9" s="24">
         <v>11</v>
       </c>
       <c r="J9" s="4">
@@ -3189,7 +3221,7 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="21">
+      <c r="O9" s="24">
         <v>11</v>
       </c>
       <c r="P9" s="4">
@@ -3203,7 +3235,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="21">
+      <c r="U9" s="24">
         <v>13</v>
       </c>
       <c r="V9" s="4">
@@ -3217,13 +3249,13 @@
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="21"/>
+      <c r="AA9" s="24"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="5"/>
-      <c r="AG9" s="21"/>
+      <c r="AG9" s="24"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
@@ -3245,7 +3277,7 @@
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="24">
         <v>10</v>
       </c>
       <c r="D10">
@@ -3258,7 +3290,7 @@
         <v>52</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="21">
+      <c r="I10" s="24">
         <v>10</v>
       </c>
       <c r="J10" s="4">
@@ -3272,7 +3304,7 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="21">
+      <c r="O10" s="24">
         <v>10</v>
       </c>
       <c r="P10" s="4">
@@ -3286,7 +3318,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="21">
+      <c r="U10" s="24">
         <v>10</v>
       </c>
       <c r="V10" s="4">
@@ -3300,13 +3332,13 @@
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="21"/>
+      <c r="AA10" s="24"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="5"/>
-      <c r="AG10" s="21"/>
+      <c r="AG10" s="24"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
@@ -3328,7 +3360,7 @@
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="24">
         <v>10</v>
       </c>
       <c r="D11">
@@ -3341,7 +3373,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="21">
+      <c r="I11" s="24">
         <v>10</v>
       </c>
       <c r="J11" s="4">
@@ -3355,7 +3387,7 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="21">
+      <c r="O11" s="24">
         <v>10</v>
       </c>
       <c r="P11" s="4">
@@ -3369,7 +3401,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="21">
+      <c r="U11" s="24">
         <v>10</v>
       </c>
       <c r="V11" s="4">
@@ -3383,13 +3415,13 @@
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="21"/>
+      <c r="AA11" s="24"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="5"/>
-      <c r="AG11" s="21"/>
+      <c r="AG11" s="24"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -3411,7 +3443,7 @@
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="24">
         <v>13</v>
       </c>
       <c r="D12">
@@ -3424,7 +3456,7 @@
         <v>64</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="21">
+      <c r="I12" s="24">
         <v>10</v>
       </c>
       <c r="J12" s="4">
@@ -3438,7 +3470,7 @@
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="21">
+      <c r="O12" s="24">
         <v>10</v>
       </c>
       <c r="P12" s="4">
@@ -3452,19 +3484,19 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="21"/>
+      <c r="U12" s="24"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="21"/>
+      <c r="AA12" s="24"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="5"/>
-      <c r="AG12" s="21"/>
+      <c r="AG12" s="24"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -3486,7 +3518,7 @@
       <c r="B13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="24">
         <v>10</v>
       </c>
       <c r="D13">
@@ -3499,7 +3531,7 @@
         <v>69</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="21">
+      <c r="I13" s="24">
         <v>10</v>
       </c>
       <c r="J13" s="4">
@@ -3513,7 +3545,7 @@
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="21">
+      <c r="O13" s="24">
         <v>10</v>
       </c>
       <c r="P13" s="4">
@@ -3527,7 +3559,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="21">
+      <c r="U13" s="24">
         <v>10</v>
       </c>
       <c r="V13" s="4">
@@ -3541,13 +3573,13 @@
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="24"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="5"/>
-      <c r="AG13" s="21"/>
+      <c r="AG13" s="24"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -3569,7 +3601,7 @@
       <c r="B14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="24">
         <v>10</v>
       </c>
       <c r="D14">
@@ -3582,7 +3614,7 @@
         <v>75</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="21">
+      <c r="I14" s="24">
         <v>10</v>
       </c>
       <c r="J14" s="4">
@@ -3596,7 +3628,7 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="21">
+      <c r="O14" s="24">
         <v>10</v>
       </c>
       <c r="P14" s="4">
@@ -3610,7 +3642,7 @@
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="21">
+      <c r="U14" s="24">
         <v>10</v>
       </c>
       <c r="V14" s="4">
@@ -3624,13 +3656,13 @@
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="21"/>
+      <c r="AA14" s="24"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="5"/>
-      <c r="AG14" s="21"/>
+      <c r="AG14" s="24"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
@@ -3652,7 +3684,7 @@
       <c r="B15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="24">
         <v>10</v>
       </c>
       <c r="D15">
@@ -3665,7 +3697,7 @@
         <v>81</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="21">
+      <c r="I15" s="24">
         <v>10</v>
       </c>
       <c r="J15" s="4">
@@ -3679,7 +3711,7 @@
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="21">
+      <c r="O15" s="24">
         <v>10</v>
       </c>
       <c r="P15" s="4">
@@ -3693,7 +3725,7 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="21">
+      <c r="U15" s="24">
         <v>10</v>
       </c>
       <c r="V15" s="4">
@@ -3707,13 +3739,13 @@
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="21"/>
+      <c r="AA15" s="24"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="21"/>
+      <c r="AG15" s="24"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
@@ -3735,7 +3767,7 @@
       <c r="B16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="24">
         <v>15</v>
       </c>
       <c r="D16">
@@ -3748,7 +3780,7 @@
         <v>87</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="21">
+      <c r="I16" s="24">
         <v>15</v>
       </c>
       <c r="J16" s="4">
@@ -3762,7 +3794,7 @@
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="21">
+      <c r="O16" s="24">
         <v>15</v>
       </c>
       <c r="P16" s="4">
@@ -3776,19 +3808,19 @@
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="21"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="21"/>
+      <c r="AA16" s="24"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="5"/>
-      <c r="AG16" s="21"/>
+      <c r="AG16" s="24"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
@@ -3810,7 +3842,7 @@
       <c r="B17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="24">
         <v>10</v>
       </c>
       <c r="D17">
@@ -3823,7 +3855,7 @@
         <v>92</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="21">
+      <c r="I17" s="24">
         <v>15</v>
       </c>
       <c r="J17" s="4">
@@ -3837,7 +3869,7 @@
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="21">
+      <c r="O17" s="24">
         <v>10</v>
       </c>
       <c r="P17" s="4">
@@ -3851,7 +3883,7 @@
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="21">
+      <c r="U17" s="24">
         <v>10</v>
       </c>
       <c r="V17" s="4">
@@ -3865,13 +3897,13 @@
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="21"/>
+      <c r="AA17" s="24"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="5"/>
-      <c r="AG17" s="21"/>
+      <c r="AG17" s="24"/>
       <c r="AH17" s="4"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
@@ -3893,7 +3925,7 @@
       <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="24">
         <v>10</v>
       </c>
       <c r="D18">
@@ -3906,7 +3938,7 @@
         <v>98</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="21">
+      <c r="I18" s="24">
         <v>10</v>
       </c>
       <c r="J18" s="4">
@@ -3920,7 +3952,7 @@
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="21">
+      <c r="O18" s="24">
         <v>10</v>
       </c>
       <c r="P18" s="4">
@@ -3934,7 +3966,7 @@
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="21">
+      <c r="U18" s="24">
         <v>10</v>
       </c>
       <c r="V18" s="4">
@@ -3948,13 +3980,13 @@
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="21"/>
+      <c r="AA18" s="24"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="5"/>
-      <c r="AG18" s="21"/>
+      <c r="AG18" s="24"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
@@ -3976,7 +4008,7 @@
       <c r="B19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="24">
         <v>11</v>
       </c>
       <c r="D19">
@@ -3989,7 +4021,7 @@
         <v>104</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="21">
+      <c r="I19" s="24">
         <v>10</v>
       </c>
       <c r="J19" s="4">
@@ -4003,7 +4035,7 @@
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="21">
+      <c r="O19" s="24">
         <v>10</v>
       </c>
       <c r="P19" s="4">
@@ -4017,19 +4049,19 @@
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="21"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="21"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="5"/>
-      <c r="AG19" s="21"/>
+      <c r="AG19" s="24"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -4051,7 +4083,7 @@
       <c r="B20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="24">
         <v>10</v>
       </c>
       <c r="D20">
@@ -4064,7 +4096,7 @@
         <v>109</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="21">
+      <c r="I20" s="24">
         <v>10</v>
       </c>
       <c r="J20" s="4">
@@ -4078,7 +4110,7 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="21">
+      <c r="O20" s="24">
         <v>10</v>
       </c>
       <c r="P20" s="4">
@@ -4092,19 +4124,19 @@
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="21"/>
+      <c r="U20" s="24"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="21"/>
+      <c r="AA20" s="24"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="5"/>
-      <c r="AG20" s="21"/>
+      <c r="AG20" s="24"/>
       <c r="AH20" s="4"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
@@ -4126,7 +4158,7 @@
       <c r="B21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="24">
         <v>10</v>
       </c>
       <c r="D21">
@@ -4139,13 +4171,13 @@
         <v>114</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="21">
+      <c r="O21" s="24">
         <v>10</v>
       </c>
       <c r="P21" s="4">
@@ -4159,7 +4191,7 @@
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="21">
+      <c r="U21" s="24">
         <v>10</v>
       </c>
       <c r="V21" s="4">
@@ -4173,13 +4205,13 @@
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="21"/>
+      <c r="AA21" s="24"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="5"/>
-      <c r="AG21" s="21"/>
+      <c r="AG21" s="24"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
@@ -4201,7 +4233,7 @@
       <c r="B22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="24">
         <v>10</v>
       </c>
       <c r="D22">
@@ -4214,7 +4246,7 @@
         <v>119</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="21">
+      <c r="I22" s="24">
         <v>10</v>
       </c>
       <c r="J22" s="4">
@@ -4228,7 +4260,7 @@
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="21">
+      <c r="O22" s="24">
         <v>10</v>
       </c>
       <c r="P22" s="4">
@@ -4242,19 +4274,19 @@
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="21"/>
+      <c r="U22" s="24"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="21"/>
+      <c r="AA22" s="24"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="5"/>
-      <c r="AG22" s="21"/>
+      <c r="AG22" s="24"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
@@ -4276,7 +4308,7 @@
       <c r="B23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="24">
         <v>10</v>
       </c>
       <c r="D23">
@@ -4289,13 +4321,13 @@
         <v>124</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="21"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="21">
+      <c r="O23" s="24">
         <v>10</v>
       </c>
       <c r="P23" s="4">
@@ -4309,7 +4341,7 @@
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="21">
+      <c r="U23" s="24">
         <v>15</v>
       </c>
       <c r="V23" s="4">
@@ -4323,13 +4355,13 @@
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="21"/>
+      <c r="AA23" s="24"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="5"/>
-      <c r="AG23" s="21"/>
+      <c r="AG23" s="24"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
@@ -4351,7 +4383,7 @@
       <c r="B24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="24">
         <v>10</v>
       </c>
       <c r="D24">
@@ -4364,7 +4396,7 @@
         <v>129</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="21">
+      <c r="I24" s="24">
         <v>10</v>
       </c>
       <c r="J24" s="4">
@@ -4378,13 +4410,13 @@
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="21"/>
+      <c r="O24" s="24"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="21">
+      <c r="U24" s="24">
         <v>10</v>
       </c>
       <c r="V24" s="4">
@@ -4398,13 +4430,13 @@
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="21"/>
+      <c r="AA24" s="24"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="5"/>
-      <c r="AG24" s="21"/>
+      <c r="AG24" s="24"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
@@ -4426,7 +4458,7 @@
       <c r="B25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="24">
         <v>10</v>
       </c>
       <c r="D25">
@@ -4439,7 +4471,7 @@
         <v>134</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="21">
+      <c r="I25" s="24">
         <v>10</v>
       </c>
       <c r="J25" s="4">
@@ -4453,7 +4485,7 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="21">
+      <c r="O25" s="24">
         <v>10</v>
       </c>
       <c r="P25" s="4">
@@ -4467,7 +4499,7 @@
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="21">
+      <c r="U25" s="24">
         <v>10</v>
       </c>
       <c r="V25" s="4">
@@ -4481,13 +4513,13 @@
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="21"/>
+      <c r="AA25" s="24"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="5"/>
-      <c r="AG25" s="21"/>
+      <c r="AG25" s="24"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
@@ -4509,7 +4541,7 @@
       <c r="B26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="24">
         <v>15</v>
       </c>
       <c r="D26">
@@ -4522,7 +4554,7 @@
         <v>140</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="21">
+      <c r="I26" s="24">
         <v>15</v>
       </c>
       <c r="J26" s="4">
@@ -4536,25 +4568,25 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="21"/>
+      <c r="O26" s="24"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="21"/>
+      <c r="U26" s="24"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="21"/>
+      <c r="AA26" s="24"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="5"/>
-      <c r="AG26" s="21"/>
+      <c r="AG26" s="24"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
@@ -4576,7 +4608,7 @@
       <c r="B27" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="24">
         <v>11</v>
       </c>
       <c r="D27">
@@ -4589,7 +4621,7 @@
         <v>144</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="21">
+      <c r="I27" s="24">
         <v>10</v>
       </c>
       <c r="J27" s="4">
@@ -4603,7 +4635,7 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="21">
+      <c r="O27" s="24">
         <v>10</v>
       </c>
       <c r="P27" s="4">
@@ -4617,19 +4649,19 @@
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="21"/>
+      <c r="U27" s="24"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="21"/>
+      <c r="AA27" s="24"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="5"/>
-      <c r="AG27" s="21"/>
+      <c r="AG27" s="24"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
@@ -4651,7 +4683,7 @@
       <c r="B28" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="24">
         <v>10</v>
       </c>
       <c r="D28">
@@ -4664,7 +4696,7 @@
         <v>149</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="21">
+      <c r="I28" s="24">
         <v>10</v>
       </c>
       <c r="J28" s="4">
@@ -4678,7 +4710,7 @@
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="21">
+      <c r="O28" s="24">
         <v>10</v>
       </c>
       <c r="P28" s="4">
@@ -4692,19 +4724,19 @@
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="21"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="21"/>
+      <c r="AA28" s="24"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="21"/>
+      <c r="AG28" s="24"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
@@ -4726,15 +4758,15 @@
       <c r="B29" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="24"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="21"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="21">
+      <c r="O29" s="24">
         <v>10</v>
       </c>
       <c r="P29" s="4">
@@ -4748,7 +4780,7 @@
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="21">
+      <c r="U29" s="24">
         <v>10</v>
       </c>
       <c r="V29" s="4">
@@ -4760,13 +4792,13 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="21"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="5"/>
-      <c r="AG29" s="21"/>
+      <c r="AG29" s="24"/>
       <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
@@ -4788,7 +4820,7 @@
       <c r="B30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="24">
         <v>10</v>
       </c>
       <c r="D30">
@@ -4801,7 +4833,7 @@
         <v>157</v>
       </c>
       <c r="H30" s="5"/>
-      <c r="I30" s="21">
+      <c r="I30" s="24">
         <v>10</v>
       </c>
       <c r="J30" s="4">
@@ -4815,7 +4847,7 @@
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="21">
+      <c r="O30" s="24">
         <v>10</v>
       </c>
       <c r="P30" s="4">
@@ -4829,19 +4861,19 @@
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="21"/>
+      <c r="U30" s="24"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="21"/>
+      <c r="AA30" s="24"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="21"/>
+      <c r="AG30" s="24"/>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
@@ -4863,7 +4895,7 @@
       <c r="B31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="24">
         <v>10</v>
       </c>
       <c r="D31">
@@ -4876,7 +4908,7 @@
         <v>162</v>
       </c>
       <c r="H31" s="5"/>
-      <c r="I31" s="21">
+      <c r="I31" s="24">
         <v>10</v>
       </c>
       <c r="J31" s="4">
@@ -4890,7 +4922,7 @@
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="21">
+      <c r="O31" s="24">
         <v>10</v>
       </c>
       <c r="P31" s="4">
@@ -4904,19 +4936,19 @@
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="21"/>
+      <c r="U31" s="24"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="21"/>
+      <c r="AA31" s="24"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="21"/>
+      <c r="AG31" s="24"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
@@ -4938,7 +4970,7 @@
       <c r="B32" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="24">
         <v>10</v>
       </c>
       <c r="D32">
@@ -4951,7 +4983,7 @@
         <v>167</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="21">
+      <c r="I32" s="24">
         <v>10</v>
       </c>
       <c r="J32" s="4">
@@ -4965,13 +4997,13 @@
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="21"/>
+      <c r="O32" s="24"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="21">
+      <c r="U32" s="24">
         <v>10</v>
       </c>
       <c r="V32" s="4">
@@ -4985,13 +5017,13 @@
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="21"/>
+      <c r="AA32" s="24"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="5"/>
-      <c r="AG32" s="21"/>
+      <c r="AG32" s="24"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
@@ -5013,7 +5045,7 @@
       <c r="B33" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="24">
         <v>10</v>
       </c>
       <c r="D33">
@@ -5026,7 +5058,7 @@
         <v>172</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="21">
+      <c r="I33" s="24">
         <v>10</v>
       </c>
       <c r="J33" s="4">
@@ -5040,7 +5072,7 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="5"/>
-      <c r="O33" s="21">
+      <c r="O33" s="24">
         <v>10</v>
       </c>
       <c r="P33" s="4">
@@ -5054,19 +5086,19 @@
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="21"/>
+      <c r="U33" s="24"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="21"/>
+      <c r="AA33" s="24"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="5"/>
-      <c r="AG33" s="21"/>
+      <c r="AG33" s="24"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
@@ -5088,7 +5120,7 @@
       <c r="B34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="24">
         <v>11</v>
       </c>
       <c r="D34">
@@ -5101,7 +5133,7 @@
         <v>177</v>
       </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="21">
+      <c r="I34" s="24">
         <v>11</v>
       </c>
       <c r="J34" s="4">
@@ -5115,7 +5147,7 @@
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="21">
+      <c r="O34" s="24">
         <v>11</v>
       </c>
       <c r="P34" s="4">
@@ -5129,19 +5161,19 @@
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="21"/>
+      <c r="U34" s="24"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="21"/>
+      <c r="AA34" s="24"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="5"/>
-      <c r="AG34" s="21"/>
+      <c r="AG34" s="24"/>
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
@@ -5163,15 +5195,15 @@
       <c r="B35" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C35" s="21"/>
+      <c r="C35" s="24"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="21"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="21">
+      <c r="O35" s="24">
         <v>15</v>
       </c>
       <c r="P35" s="4">
@@ -5185,19 +5217,19 @@
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="21"/>
+      <c r="U35" s="24"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="21"/>
+      <c r="AA35" s="24"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="5"/>
-      <c r="AG35" s="21"/>
+      <c r="AG35" s="24"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
@@ -5219,9 +5251,9 @@
       <c r="B36" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="21"/>
+      <c r="C36" s="24"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="21">
+      <c r="I36" s="24">
         <v>10</v>
       </c>
       <c r="J36" s="4">
@@ -5235,7 +5267,7 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="21">
+      <c r="O36" s="24">
         <v>10</v>
       </c>
       <c r="P36" s="4">
@@ -5249,19 +5281,19 @@
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="21"/>
+      <c r="U36" s="24"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="21"/>
+      <c r="AA36" s="24"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="5"/>
-      <c r="AG36" s="21"/>
+      <c r="AG36" s="24"/>
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
@@ -5283,7 +5315,7 @@
       <c r="B37" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="24">
         <v>10</v>
       </c>
       <c r="D37">
@@ -5296,7 +5328,7 @@
         <v>189</v>
       </c>
       <c r="H37" s="5"/>
-      <c r="I37" s="21">
+      <c r="I37" s="24">
         <v>10</v>
       </c>
       <c r="J37" s="4">
@@ -5310,7 +5342,7 @@
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="5"/>
-      <c r="O37" s="21">
+      <c r="O37" s="24">
         <v>10</v>
       </c>
       <c r="P37" s="4">
@@ -5324,19 +5356,19 @@
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="21"/>
+      <c r="U37" s="24"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="5"/>
-      <c r="AA37" s="21"/>
+      <c r="AA37" s="24"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="5"/>
-      <c r="AG37" s="21"/>
+      <c r="AG37" s="24"/>
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
@@ -5358,7 +5390,7 @@
       <c r="B38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="24">
         <v>10</v>
       </c>
       <c r="D38">
@@ -5371,7 +5403,7 @@
         <v>194</v>
       </c>
       <c r="H38" s="5"/>
-      <c r="I38" s="21">
+      <c r="I38" s="24">
         <v>10</v>
       </c>
       <c r="J38" s="4">
@@ -5385,25 +5417,25 @@
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="21"/>
+      <c r="O38" s="24"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="21"/>
+      <c r="U38" s="24"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="21"/>
+      <c r="AA38" s="24"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="5"/>
-      <c r="AG38" s="21"/>
+      <c r="AG38" s="24"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
@@ -5425,7 +5457,7 @@
       <c r="B39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="24">
         <v>10</v>
       </c>
       <c r="D39">
@@ -5438,7 +5470,7 @@
         <v>198</v>
       </c>
       <c r="H39" s="5"/>
-      <c r="I39" s="21">
+      <c r="I39" s="24">
         <v>10</v>
       </c>
       <c r="J39" s="4">
@@ -5452,13 +5484,13 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="21"/>
+      <c r="O39" s="24"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="21">
+      <c r="U39" s="24">
         <v>10</v>
       </c>
       <c r="V39" s="4">
@@ -5472,13 +5504,13 @@
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="21"/>
+      <c r="AA39" s="24"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="5"/>
-      <c r="AG39" s="21"/>
+      <c r="AG39" s="24"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
@@ -5500,7 +5532,7 @@
       <c r="B40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="24">
         <v>10</v>
       </c>
       <c r="D40">
@@ -5513,7 +5545,7 @@
         <v>203</v>
       </c>
       <c r="H40" s="5"/>
-      <c r="I40" s="21">
+      <c r="I40" s="24">
         <v>10</v>
       </c>
       <c r="J40" s="4">
@@ -5527,7 +5559,7 @@
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="21">
+      <c r="O40" s="24">
         <v>10</v>
       </c>
       <c r="P40" s="4">
@@ -5541,19 +5573,19 @@
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="21"/>
+      <c r="U40" s="24"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="21"/>
+      <c r="AA40" s="24"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="5"/>
-      <c r="AG40" s="21"/>
+      <c r="AG40" s="24"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
@@ -5575,7 +5607,7 @@
       <c r="B41" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="24">
         <v>10</v>
       </c>
       <c r="D41">
@@ -5588,7 +5620,7 @@
         <v>208</v>
       </c>
       <c r="H41" s="5"/>
-      <c r="I41" s="21">
+      <c r="I41" s="24">
         <v>10</v>
       </c>
       <c r="J41" s="4">
@@ -5602,7 +5634,7 @@
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="5"/>
-      <c r="O41" s="21">
+      <c r="O41" s="24">
         <v>10</v>
       </c>
       <c r="P41" s="4">
@@ -5616,19 +5648,19 @@
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="21"/>
+      <c r="U41" s="24"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="21"/>
+      <c r="AA41" s="24"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="5"/>
-      <c r="AG41" s="21"/>
+      <c r="AG41" s="24"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
@@ -5650,7 +5682,7 @@
       <c r="B42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="24">
         <v>10</v>
       </c>
       <c r="D42">
@@ -5663,13 +5695,13 @@
         <v>213</v>
       </c>
       <c r="H42" s="5"/>
-      <c r="I42" s="21"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="21">
+      <c r="O42" s="24">
         <v>10</v>
       </c>
       <c r="P42" s="4">
@@ -5683,19 +5715,19 @@
       </c>
       <c r="S42" s="4"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="21"/>
+      <c r="U42" s="24"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="21"/>
+      <c r="AA42" s="24"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="5"/>
-      <c r="AG42" s="21"/>
+      <c r="AG42" s="24"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
@@ -5717,7 +5749,7 @@
       <c r="B43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="24">
         <v>10</v>
       </c>
       <c r="D43">
@@ -5730,19 +5762,19 @@
         <v>217</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43" s="21"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="5"/>
-      <c r="O43" s="21"/>
+      <c r="O43" s="24"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="21">
+      <c r="U43" s="24">
         <v>12</v>
       </c>
       <c r="V43" s="4">
@@ -5756,13 +5788,13 @@
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="21"/>
+      <c r="AA43" s="24"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="5"/>
-      <c r="AG43" s="21"/>
+      <c r="AG43" s="24"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
@@ -5784,9 +5816,9 @@
       <c r="B44" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C44" s="21"/>
+      <c r="C44" s="24"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="21">
+      <c r="I44" s="24">
         <v>10</v>
       </c>
       <c r="J44" s="4">
@@ -5800,13 +5832,13 @@
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="21"/>
+      <c r="O44" s="24"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="21">
+      <c r="U44" s="24">
         <v>10</v>
       </c>
       <c r="V44" s="4">
@@ -5820,13 +5852,13 @@
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="21"/>
+      <c r="AA44" s="24"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="5"/>
-      <c r="AG44" s="21"/>
+      <c r="AG44" s="24"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
@@ -5848,9 +5880,9 @@
       <c r="B45" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="21"/>
+      <c r="C45" s="24"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="21">
+      <c r="I45" s="24">
         <v>10</v>
       </c>
       <c r="J45" s="4">
@@ -5864,25 +5896,25 @@
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="21"/>
+      <c r="O45" s="24"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="21"/>
+      <c r="U45" s="24"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="21"/>
+      <c r="AA45" s="24"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="5"/>
-      <c r="AG45" s="21"/>
+      <c r="AG45" s="24"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
@@ -5904,21 +5936,21 @@
       <c r="B46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="21"/>
+      <c r="C46" s="24"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="21"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="21"/>
+      <c r="O46" s="24"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="21">
+      <c r="U46" s="24">
         <v>10</v>
       </c>
       <c r="V46" s="4">
@@ -5932,13 +5964,13 @@
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="21"/>
+      <c r="AA46" s="24"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="5"/>
-      <c r="AG46" s="21"/>
+      <c r="AG46" s="24"/>
       <c r="AH46" s="4"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
@@ -5960,15 +5992,15 @@
       <c r="B47" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="21"/>
+      <c r="C47" s="24"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="21"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="5"/>
-      <c r="O47" s="21">
+      <c r="O47" s="24">
         <v>15</v>
       </c>
       <c r="P47" s="4" t="s">
@@ -5981,19 +6013,19 @@
       <c r="T47" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="U47" s="21"/>
+      <c r="U47" s="24"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="21"/>
+      <c r="AA47" s="24"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="5"/>
-      <c r="AG47" s="21"/>
+      <c r="AG47" s="24"/>
       <c r="AH47" s="4"/>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
@@ -6015,33 +6047,33 @@
       <c r="B48" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="24"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="21"/>
+      <c r="I48" s="24"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="21"/>
+      <c r="O48" s="24"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="21"/>
+      <c r="U48" s="24"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="21"/>
+      <c r="AA48" s="24"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="5"/>
-      <c r="AG48" s="21"/>
+      <c r="AG48" s="24"/>
       <c r="AH48" s="4"/>
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
@@ -6063,15 +6095,15 @@
       <c r="B49" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="24"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="21"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="21">
+      <c r="O49" s="24">
         <v>10</v>
       </c>
       <c r="P49" s="4">
@@ -6083,19 +6115,19 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="21"/>
+      <c r="U49" s="24"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="5"/>
-      <c r="AA49" s="21"/>
+      <c r="AA49" s="24"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="5"/>
-      <c r="AG49" s="21"/>
+      <c r="AG49" s="24"/>
       <c r="AH49" s="4"/>
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
@@ -6117,33 +6149,33 @@
       <c r="B50" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="21"/>
+      <c r="C50" s="24"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="21"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="21"/>
+      <c r="O50" s="24"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="21"/>
+      <c r="U50" s="24"/>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="21"/>
+      <c r="AA50" s="24"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="5"/>
-      <c r="AG50" s="21"/>
+      <c r="AG50" s="24"/>
       <c r="AH50" s="4"/>
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
@@ -6165,33 +6197,33 @@
       <c r="B51" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C51" s="21"/>
+      <c r="C51" s="24"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="21"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="5"/>
-      <c r="O51" s="21"/>
+      <c r="O51" s="24"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="21"/>
+      <c r="U51" s="24"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="21"/>
+      <c r="AA51" s="24"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="5"/>
-      <c r="AG51" s="21"/>
+      <c r="AG51" s="24"/>
       <c r="AH51" s="4"/>
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
@@ -6213,7 +6245,7 @@
       <c r="B52" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="24">
         <v>10</v>
       </c>
       <c r="D52">
@@ -6226,31 +6258,31 @@
         <v>242</v>
       </c>
       <c r="H52" s="5"/>
-      <c r="I52" s="21"/>
+      <c r="I52" s="24"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="21"/>
+      <c r="O52" s="24"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="21"/>
+      <c r="U52" s="24"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="21"/>
+      <c r="AA52" s="24"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="5"/>
-      <c r="AG52" s="21"/>
+      <c r="AG52" s="24"/>
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
@@ -6272,15 +6304,15 @@
       <c r="B53" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="24"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="21"/>
+      <c r="I53" s="24"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="21">
+      <c r="O53" s="24">
         <v>10</v>
       </c>
       <c r="P53" s="4">
@@ -6294,19 +6326,19 @@
       </c>
       <c r="S53" s="4"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="21"/>
+      <c r="U53" s="24"/>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="5"/>
-      <c r="AA53" s="21"/>
+      <c r="AA53" s="24"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="5"/>
-      <c r="AG53" s="21"/>
+      <c r="AG53" s="24"/>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
@@ -6328,21 +6360,21 @@
       <c r="B54" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C54" s="21"/>
+      <c r="C54" s="24"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="21"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="5"/>
-      <c r="O54" s="21"/>
+      <c r="O54" s="24"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="21">
+      <c r="U54" s="24">
         <v>10</v>
       </c>
       <c r="V54" s="4">
@@ -6356,13 +6388,13 @@
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="5"/>
-      <c r="AA54" s="21"/>
+      <c r="AA54" s="24"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="5"/>
-      <c r="AG54" s="21"/>
+      <c r="AG54" s="24"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
@@ -6384,7 +6416,7 @@
       <c r="B55" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="24">
         <v>10</v>
       </c>
       <c r="D55">
@@ -6397,31 +6429,31 @@
         <v>251</v>
       </c>
       <c r="H55" s="5"/>
-      <c r="I55" s="21"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="5"/>
-      <c r="O55" s="21"/>
+      <c r="O55" s="24"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="21"/>
+      <c r="U55" s="24"/>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="5"/>
-      <c r="AA55" s="21"/>
+      <c r="AA55" s="24"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="5"/>
-      <c r="AG55" s="21"/>
+      <c r="AG55" s="24"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
@@ -6443,33 +6475,33 @@
       <c r="B56" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="21"/>
+      <c r="C56" s="24"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="21"/>
+      <c r="I56" s="24"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="21"/>
+      <c r="O56" s="24"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="21"/>
+      <c r="U56" s="24"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="5"/>
-      <c r="AA56" s="21"/>
+      <c r="AA56" s="24"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="5"/>
-      <c r="AG56" s="21"/>
+      <c r="AG56" s="24"/>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
@@ -6491,33 +6523,33 @@
       <c r="B57" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C57" s="21"/>
+      <c r="C57" s="24"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="21"/>
+      <c r="I57" s="24"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5"/>
-      <c r="O57" s="21"/>
+      <c r="O57" s="24"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="21"/>
+      <c r="U57" s="24"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="5"/>
-      <c r="AA57" s="21"/>
+      <c r="AA57" s="24"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="5"/>
-      <c r="AG57" s="21"/>
+      <c r="AG57" s="24"/>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
@@ -6539,33 +6571,33 @@
       <c r="B58" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C58" s="21"/>
+      <c r="C58" s="24"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="21"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="5"/>
-      <c r="O58" s="21"/>
+      <c r="O58" s="24"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="21"/>
+      <c r="U58" s="24"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="5"/>
-      <c r="AA58" s="21"/>
+      <c r="AA58" s="24"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="5"/>
-      <c r="AG58" s="21"/>
+      <c r="AG58" s="24"/>
       <c r="AH58" s="4"/>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
@@ -6587,33 +6619,33 @@
       <c r="B59" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="21"/>
+      <c r="C59" s="24"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="21"/>
+      <c r="I59" s="24"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="5"/>
-      <c r="O59" s="21"/>
+      <c r="O59" s="24"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="21"/>
+      <c r="U59" s="24"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="5"/>
-      <c r="AA59" s="21"/>
+      <c r="AA59" s="24"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="5"/>
-      <c r="AG59" s="21"/>
+      <c r="AG59" s="24"/>
       <c r="AH59" s="4"/>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
@@ -6635,33 +6667,33 @@
       <c r="B60" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="24"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="21"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="5"/>
-      <c r="O60" s="21"/>
+      <c r="O60" s="24"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="21"/>
+      <c r="U60" s="24"/>
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="5"/>
-      <c r="AA60" s="21"/>
+      <c r="AA60" s="24"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="5"/>
-      <c r="AG60" s="21"/>
+      <c r="AG60" s="24"/>
       <c r="AH60" s="4"/>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
@@ -6683,33 +6715,33 @@
       <c r="B61" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C61" s="21"/>
+      <c r="C61" s="24"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="21"/>
+      <c r="I61" s="24"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5"/>
-      <c r="O61" s="21"/>
+      <c r="O61" s="24"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="21"/>
+      <c r="U61" s="24"/>
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="5"/>
-      <c r="AA61" s="21"/>
+      <c r="AA61" s="24"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="5"/>
-      <c r="AG61" s="21"/>
+      <c r="AG61" s="24"/>
       <c r="AH61" s="4"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
@@ -6731,33 +6763,33 @@
       <c r="B62" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="21"/>
+      <c r="C62" s="24"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="21"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
-      <c r="O62" s="21"/>
+      <c r="O62" s="24"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="21"/>
+      <c r="U62" s="24"/>
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="5"/>
-      <c r="AA62" s="21"/>
+      <c r="AA62" s="24"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="5"/>
-      <c r="AG62" s="21"/>
+      <c r="AG62" s="24"/>
       <c r="AH62" s="4"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
@@ -6779,33 +6811,33 @@
       <c r="B63" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C63" s="21"/>
+      <c r="C63" s="24"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="21"/>
+      <c r="I63" s="24"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
-      <c r="O63" s="21"/>
+      <c r="O63" s="24"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="21"/>
+      <c r="U63" s="24"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="5"/>
-      <c r="AA63" s="21"/>
+      <c r="AA63" s="24"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="5"/>
-      <c r="AG63" s="21"/>
+      <c r="AG63" s="24"/>
       <c r="AH63" s="4"/>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
@@ -6827,33 +6859,33 @@
       <c r="B64" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C64" s="21"/>
+      <c r="C64" s="24"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="21"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
-      <c r="O64" s="21"/>
+      <c r="O64" s="24"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="21"/>
+      <c r="U64" s="24"/>
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="5"/>
-      <c r="AA64" s="21"/>
+      <c r="AA64" s="24"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="5"/>
-      <c r="AG64" s="21"/>
+      <c r="AG64" s="24"/>
       <c r="AH64" s="4"/>
       <c r="AI64" s="4"/>
       <c r="AJ64" s="4"/>
@@ -6875,33 +6907,33 @@
       <c r="B65" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="21"/>
+      <c r="C65" s="24"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="21"/>
+      <c r="I65" s="24"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
-      <c r="O65" s="21"/>
+      <c r="O65" s="24"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="21"/>
+      <c r="U65" s="24"/>
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="5"/>
-      <c r="AA65" s="21"/>
+      <c r="AA65" s="24"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="5"/>
-      <c r="AG65" s="21"/>
+      <c r="AG65" s="24"/>
       <c r="AH65" s="4"/>
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
@@ -6923,33 +6955,33 @@
       <c r="B66" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="21"/>
+      <c r="C66" s="24"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="21"/>
+      <c r="I66" s="24"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="21"/>
+      <c r="O66" s="24"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="21"/>
+      <c r="U66" s="24"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="5"/>
-      <c r="AA66" s="21"/>
+      <c r="AA66" s="24"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="5"/>
-      <c r="AG66" s="21"/>
+      <c r="AG66" s="24"/>
       <c r="AH66" s="4"/>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
@@ -6971,33 +7003,33 @@
       <c r="B67" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C67" s="21"/>
+      <c r="C67" s="24"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="21"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="21"/>
+      <c r="O67" s="24"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="21"/>
+      <c r="U67" s="24"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="5"/>
-      <c r="AA67" s="21"/>
+      <c r="AA67" s="24"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="5"/>
-      <c r="AG67" s="21"/>
+      <c r="AG67" s="24"/>
       <c r="AH67" s="4"/>
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
@@ -7019,33 +7051,33 @@
       <c r="B68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="24"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="21"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="21"/>
+      <c r="O68" s="24"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="21"/>
+      <c r="U68" s="24"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="5"/>
-      <c r="AA68" s="21"/>
+      <c r="AA68" s="24"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="5"/>
-      <c r="AG68" s="21"/>
+      <c r="AG68" s="24"/>
       <c r="AH68" s="4"/>
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
@@ -7067,33 +7099,33 @@
       <c r="B69" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C69" s="21"/>
+      <c r="C69" s="24"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="21"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="5"/>
-      <c r="O69" s="21"/>
+      <c r="O69" s="24"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="21"/>
+      <c r="U69" s="24"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="5"/>
-      <c r="AA69" s="21"/>
+      <c r="AA69" s="24"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AF69" s="5"/>
-      <c r="AG69" s="21"/>
+      <c r="AG69" s="24"/>
       <c r="AH69" s="4"/>
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
@@ -7115,33 +7147,33 @@
       <c r="B70" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="21"/>
+      <c r="C70" s="24"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="21"/>
+      <c r="I70" s="24"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="5"/>
-      <c r="O70" s="21"/>
+      <c r="O70" s="24"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="21"/>
+      <c r="U70" s="24"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="5"/>
-      <c r="AA70" s="21"/>
+      <c r="AA70" s="24"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="5"/>
-      <c r="AG70" s="21"/>
+      <c r="AG70" s="24"/>
       <c r="AH70" s="4"/>
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
@@ -7163,33 +7195,33 @@
       <c r="B71" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="21"/>
+      <c r="C71" s="24"/>
       <c r="H71" s="5"/>
-      <c r="I71" s="21"/>
+      <c r="I71" s="24"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="5"/>
-      <c r="O71" s="21"/>
+      <c r="O71" s="24"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="5"/>
-      <c r="U71" s="21"/>
+      <c r="U71" s="24"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="5"/>
-      <c r="AA71" s="21"/>
+      <c r="AA71" s="24"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="5"/>
-      <c r="AG71" s="21"/>
+      <c r="AG71" s="24"/>
       <c r="AH71" s="4"/>
       <c r="AI71" s="4"/>
       <c r="AJ71" s="4"/>
@@ -7211,33 +7243,33 @@
       <c r="B72" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="21"/>
+      <c r="C72" s="24"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="21"/>
+      <c r="I72" s="24"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="5"/>
-      <c r="O72" s="21"/>
+      <c r="O72" s="24"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="5"/>
-      <c r="U72" s="21"/>
+      <c r="U72" s="24"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="5"/>
-      <c r="AA72" s="21"/>
+      <c r="AA72" s="24"/>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="5"/>
-      <c r="AG72" s="21"/>
+      <c r="AG72" s="24"/>
       <c r="AH72" s="4"/>
       <c r="AI72" s="4"/>
       <c r="AJ72" s="4"/>
@@ -7259,33 +7291,33 @@
       <c r="B73" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="21"/>
+      <c r="C73" s="24"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="21"/>
+      <c r="I73" s="24"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="5"/>
-      <c r="O73" s="21"/>
+      <c r="O73" s="24"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="5"/>
-      <c r="U73" s="21"/>
+      <c r="U73" s="24"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="5"/>
-      <c r="AA73" s="21"/>
+      <c r="AA73" s="24"/>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="5"/>
-      <c r="AG73" s="21"/>
+      <c r="AG73" s="24"/>
       <c r="AH73" s="4"/>
       <c r="AI73" s="4"/>
       <c r="AJ73" s="4"/>
@@ -7301,33 +7333,33 @@
       </c>
     </row>
     <row r="74" spans="3:38">
-      <c r="C74" s="21"/>
+      <c r="C74" s="24"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="21"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="5"/>
-      <c r="O74" s="21"/>
+      <c r="O74" s="24"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="5"/>
-      <c r="U74" s="21"/>
+      <c r="U74" s="24"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="5"/>
-      <c r="AA74" s="21"/>
+      <c r="AA74" s="24"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AF74" s="5"/>
-      <c r="AG74" s="21"/>
+      <c r="AG74" s="24"/>
       <c r="AH74" s="4"/>
       <c r="AI74" s="4"/>
       <c r="AJ74" s="4"/>
@@ -7335,33 +7367,33 @@
       <c r="AL74" s="5"/>
     </row>
     <row r="75" spans="3:38">
-      <c r="C75" s="21"/>
+      <c r="C75" s="24"/>
       <c r="H75" s="5"/>
-      <c r="I75" s="21"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="5"/>
-      <c r="O75" s="21"/>
+      <c r="O75" s="24"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="5"/>
-      <c r="U75" s="21"/>
+      <c r="U75" s="24"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="5"/>
-      <c r="AA75" s="21"/>
+      <c r="AA75" s="24"/>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="5"/>
-      <c r="AG75" s="21"/>
+      <c r="AG75" s="24"/>
       <c r="AH75" s="4"/>
       <c r="AI75" s="4"/>
       <c r="AJ75" s="4"/>
@@ -7369,33 +7401,33 @@
       <c r="AL75" s="5"/>
     </row>
     <row r="76" spans="3:38">
-      <c r="C76" s="21"/>
+      <c r="C76" s="24"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="21"/>
+      <c r="I76" s="24"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="5"/>
-      <c r="O76" s="21"/>
+      <c r="O76" s="24"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="5"/>
-      <c r="U76" s="21"/>
+      <c r="U76" s="24"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="5"/>
-      <c r="AA76" s="21"/>
+      <c r="AA76" s="24"/>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="5"/>
-      <c r="AG76" s="21"/>
+      <c r="AG76" s="24"/>
       <c r="AH76" s="4"/>
       <c r="AI76" s="4"/>
       <c r="AJ76" s="4"/>
@@ -7411,21 +7443,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AW96"/>
+  <dimension ref="A1:AU96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="W37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB64" sqref="AA64:AB64"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="4" customWidth="1"/>
     <col min="5" max="6" width="9" style="4" customWidth="1"/>
     <col min="7" max="7" width="9" style="15" customWidth="1"/>
@@ -7442,75 +7474,76 @@
     <col min="34" max="34" width="10.375" customWidth="1"/>
     <col min="40" max="40" width="10.375" customWidth="1"/>
     <col min="46" max="46" width="10.25" customWidth="1"/>
-    <col min="48" max="48" width="15.25" customWidth="1"/>
-    <col min="49" max="49" width="11.5" customWidth="1"/>
-    <col min="50" max="50" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:45">
-      <c r="C1" s="5"/>
-      <c r="D1" s="3">
-        <v>43696</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="3">
-        <v>43697</v>
+    <row r="1" spans="1:45">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="15"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="3">
-        <v>43698</v>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="15"/>
+      <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="3">
-        <v>43699</v>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
-      <c r="Y1" s="15"/>
+      <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="3">
-        <v>43700</v>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="3">
-        <v>43701</v>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="3">
-        <v>43702</v>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="AO1" s="4"/>
       <c r="AP1" s="4"/>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
-      <c r="AS1" s="5"/>
+      <c r="AS1" s="4"/>
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>285</v>
+      <c r="C2" s="20">
+        <v>43705</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
@@ -7521,7 +7554,7 @@
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
@@ -7539,7 +7572,7 @@
       <c r="L2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -7557,7 +7590,7 @@
       <c r="R2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="T2" s="8" t="s">
@@ -7575,7 +7608,7 @@
       <c r="X2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="Z2" s="8" t="s">
@@ -7645,17 +7678,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:47">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21">
+      <c r="B3" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="20">
+        <v>43705</v>
+      </c>
+      <c r="D3" s="24">
         <v>5</v>
       </c>
       <c r="E3">
@@ -7665,10 +7698,10 @@
         <v>575000</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="21">
+      <c r="J3" s="24">
         <v>5</v>
       </c>
       <c r="K3" s="4">
@@ -7678,11 +7711,11 @@
         <v>500000</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="21">
+      <c r="P3" s="24">
         <v>5</v>
       </c>
       <c r="Q3" s="4">
@@ -7692,11 +7725,11 @@
         <v>440000</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="21">
+      <c r="V3" s="24">
         <v>5</v>
       </c>
       <c r="W3" s="4">
@@ -7706,23 +7739,23 @@
         <v>475000</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="21"/>
+      <c r="AB3" s="24"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="21"/>
+      <c r="AH3" s="24"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="5"/>
-      <c r="AN3" s="21"/>
+      <c r="AN3" s="24"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
@@ -7736,22 +7769,18 @@
         <f t="shared" ref="AU3:AU66" si="1">D3+J3+P3+V3+AB3+AH3+AN3</f>
         <v>20</v>
       </c>
-      <c r="AV3" t="str">
-        <f>IF(AU3=0,B3,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:49">
-      <c r="A4" s="19" t="s">
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="24">
         <v>10</v>
       </c>
       <c r="E4">
@@ -7761,10 +7790,10 @@
         <v>790000</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="21">
+      <c r="J4" s="24">
         <v>10</v>
       </c>
       <c r="K4" s="4">
@@ -7774,11 +7803,11 @@
         <v>800000</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="21">
+      <c r="P4" s="24">
         <v>10</v>
       </c>
       <c r="Q4" s="4">
@@ -7788,11 +7817,11 @@
         <v>800000</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="21">
+      <c r="V4" s="24">
         <v>10</v>
       </c>
       <c r="W4" s="4">
@@ -7802,23 +7831,23 @@
         <v>850000</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="21"/>
+      <c r="AB4" s="24"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="21"/>
+      <c r="AH4" s="24"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
       <c r="AM4" s="5"/>
-      <c r="AN4" s="21"/>
+      <c r="AN4" s="24"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
@@ -7832,26 +7861,18 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AV4" t="str">
-        <f t="shared" ref="AV4:AV35" si="2">IF(AU4=0,B4,"")</f>
-        <v/>
-      </c>
-      <c r="AW4" t="str">
-        <f t="shared" ref="AW4:AW35" si="3">IF(AU4=0,A4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:49">
-      <c r="A5" s="19" t="s">
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="24">
         <v>10</v>
       </c>
       <c r="E5">
@@ -7861,10 +7882,10 @@
         <v>1340000</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="21">
+      <c r="J5" s="24">
         <v>5</v>
       </c>
       <c r="K5" s="4">
@@ -7874,11 +7895,11 @@
         <v>525000</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="21">
+      <c r="P5" s="24">
         <v>5</v>
       </c>
       <c r="Q5" s="4">
@@ -7888,11 +7909,11 @@
         <v>400000</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="21">
+      <c r="V5" s="24">
         <v>5</v>
       </c>
       <c r="W5" s="4">
@@ -7902,23 +7923,23 @@
         <v>440000</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="5"/>
-      <c r="AB5" s="21"/>
+      <c r="AB5" s="24"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="21"/>
+      <c r="AH5" s="24"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="5"/>
-      <c r="AN5" s="21"/>
+      <c r="AN5" s="24"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -7932,26 +7953,18 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AV5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:49">
-      <c r="A6" s="19" t="s">
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="24">
         <v>5</v>
       </c>
       <c r="E6">
@@ -7961,10 +7974,10 @@
         <v>475000</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="21">
+      <c r="J6" s="24">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -7974,11 +7987,11 @@
         <v>375000</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="21">
+      <c r="P6" s="24">
         <v>5</v>
       </c>
       <c r="Q6" s="4">
@@ -7988,11 +8001,11 @@
         <v>395000</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="21">
+      <c r="V6" s="24">
         <v>5</v>
       </c>
       <c r="W6" s="4">
@@ -8002,23 +8015,23 @@
         <v>455000</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Z6" s="4"/>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="21"/>
+      <c r="AB6" s="24"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="21"/>
+      <c r="AH6" s="24"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
       <c r="AM6" s="5"/>
-      <c r="AN6" s="21"/>
+      <c r="AN6" s="24"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
@@ -8032,26 +8045,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:49">
-      <c r="A7" s="19" t="s">
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="24">
         <v>5</v>
       </c>
       <c r="E7">
@@ -8061,10 +8066,10 @@
         <v>450000</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="21">
+      <c r="J7" s="24">
         <v>5</v>
       </c>
       <c r="K7" s="4">
@@ -8074,11 +8079,11 @@
         <v>420000</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="21">
+      <c r="P7" s="24">
         <v>5</v>
       </c>
       <c r="Q7" s="4">
@@ -8088,11 +8093,11 @@
         <v>420000</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="21">
+      <c r="V7" s="24">
         <v>5</v>
       </c>
       <c r="W7" s="4">
@@ -8102,23 +8107,23 @@
         <v>435000</v>
       </c>
       <c r="Y7" s="15" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="21"/>
+      <c r="AB7" s="24"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="21"/>
+      <c r="AH7" s="24"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="5"/>
-      <c r="AN7" s="21"/>
+      <c r="AN7" s="24"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -8132,26 +8137,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:49">
-      <c r="A8" s="19" t="s">
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="24">
         <v>5</v>
       </c>
       <c r="E8">
@@ -8161,10 +8158,10 @@
         <v>350000</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="21">
+      <c r="J8" s="24">
         <v>5</v>
       </c>
       <c r="K8" s="4">
@@ -8174,11 +8171,11 @@
         <v>350000</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="21">
+      <c r="P8" s="24">
         <v>5</v>
       </c>
       <c r="Q8" s="4">
@@ -8188,11 +8185,11 @@
         <v>350000</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="21">
+      <c r="V8" s="24">
         <v>5</v>
       </c>
       <c r="W8" s="4">
@@ -8202,23 +8199,23 @@
         <v>365000</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="21"/>
+      <c r="AB8" s="24"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="21"/>
+      <c r="AH8" s="24"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
       <c r="AM8" s="5"/>
-      <c r="AN8" s="21"/>
+      <c r="AN8" s="24"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -8232,26 +8229,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW8" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:49">
-      <c r="A9" s="19" t="s">
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="24">
         <v>5</v>
       </c>
       <c r="E9">
@@ -8261,10 +8250,10 @@
         <v>365000</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="21">
+      <c r="J9" s="24">
         <v>5</v>
       </c>
       <c r="K9" s="4">
@@ -8274,11 +8263,11 @@
         <v>295000</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="21">
+      <c r="P9" s="24">
         <v>5</v>
       </c>
       <c r="Q9" s="4">
@@ -8288,29 +8277,29 @@
         <v>295000</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="21"/>
+      <c r="V9" s="24"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="21"/>
+      <c r="AB9" s="24"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="5"/>
-      <c r="AH9" s="21"/>
+      <c r="AH9" s="24"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
       <c r="AM9" s="5"/>
-      <c r="AN9" s="21"/>
+      <c r="AN9" s="24"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -8324,26 +8313,18 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AV9" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:49">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="24">
         <v>5</v>
       </c>
       <c r="E10">
@@ -8353,10 +8334,10 @@
         <v>440000</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="21">
+      <c r="J10" s="24">
         <v>5</v>
       </c>
       <c r="K10" s="4">
@@ -8366,11 +8347,11 @@
         <v>550000</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="21">
+      <c r="P10" s="24">
         <v>5</v>
       </c>
       <c r="Q10" s="4">
@@ -8380,11 +8361,11 @@
         <v>440000</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="21">
+      <c r="V10" s="24">
         <v>5</v>
       </c>
       <c r="W10" s="4">
@@ -8394,23 +8375,23 @@
         <v>440000</v>
       </c>
       <c r="Y10" s="15" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="21"/>
+      <c r="AB10" s="24"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="5"/>
-      <c r="AH10" s="21"/>
+      <c r="AH10" s="24"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
       <c r="AM10" s="5"/>
-      <c r="AN10" s="21"/>
+      <c r="AN10" s="24"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
@@ -8424,26 +8405,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW10" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:49">
-      <c r="A11" s="19" t="s">
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="24">
         <v>5</v>
       </c>
       <c r="E11">
@@ -8453,10 +8426,10 @@
         <v>500000</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="21">
+      <c r="J11" s="24">
         <v>5</v>
       </c>
       <c r="K11" s="4">
@@ -8466,11 +8439,11 @@
         <v>370000</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="21">
+      <c r="P11" s="24">
         <v>5</v>
       </c>
       <c r="Q11" s="4">
@@ -8480,11 +8453,11 @@
         <v>400000</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="21">
+      <c r="V11" s="24">
         <v>5</v>
       </c>
       <c r="W11" s="4">
@@ -8496,19 +8469,19 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="21"/>
+      <c r="AB11" s="24"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="5"/>
-      <c r="AH11" s="21"/>
+      <c r="AH11" s="24"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
       <c r="AM11" s="5"/>
-      <c r="AN11" s="21"/>
+      <c r="AN11" s="24"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
@@ -8522,26 +8495,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:49">
-      <c r="A12" s="19" t="s">
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="24">
         <v>8</v>
       </c>
       <c r="E12">
@@ -8551,10 +8516,10 @@
         <v>424000</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="21">
+      <c r="J12" s="24">
         <v>5</v>
       </c>
       <c r="K12" s="4">
@@ -8564,11 +8529,11 @@
         <v>475000</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="21">
+      <c r="P12" s="24">
         <v>5</v>
       </c>
       <c r="Q12" s="4">
@@ -8578,11 +8543,11 @@
         <v>480000</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="21">
+      <c r="V12" s="24">
         <v>5</v>
       </c>
       <c r="W12" s="4">
@@ -8597,19 +8562,19 @@
       </c>
       <c r="Z12" s="4"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="21"/>
+      <c r="AB12" s="24"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="21"/>
+      <c r="AH12" s="24"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="5"/>
-      <c r="AN12" s="21"/>
+      <c r="AN12" s="24"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -8623,26 +8588,18 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AV12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW12" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:49">
-      <c r="A13" s="19" t="s">
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="24">
         <v>5</v>
       </c>
       <c r="E13">
@@ -8652,10 +8609,10 @@
         <v>420000</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="21">
+      <c r="J13" s="24">
         <v>5</v>
       </c>
       <c r="K13" s="4">
@@ -8665,11 +8622,11 @@
         <v>370000</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="21">
+      <c r="P13" s="24">
         <v>5</v>
       </c>
       <c r="Q13" s="4">
@@ -8679,11 +8636,11 @@
         <v>370000</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="21">
+      <c r="V13" s="24">
         <v>5</v>
       </c>
       <c r="W13" s="4">
@@ -8696,19 +8653,19 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="21"/>
+      <c r="AB13" s="24"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="21"/>
+      <c r="AH13" s="24"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="5"/>
-      <c r="AN13" s="21"/>
+      <c r="AN13" s="24"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -8722,26 +8679,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:49">
-      <c r="A14" s="19" t="s">
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="24">
         <v>10</v>
       </c>
       <c r="E14">
@@ -8754,7 +8703,7 @@
         <v>75</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="21">
+      <c r="J14" s="24">
         <v>5</v>
       </c>
       <c r="K14" s="4">
@@ -8764,11 +8713,11 @@
         <v>350000</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="21">
+      <c r="P14" s="24">
         <v>5</v>
       </c>
       <c r="Q14" s="4">
@@ -8778,29 +8727,29 @@
         <v>365000</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="21"/>
+      <c r="V14" s="24"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="21"/>
+      <c r="AB14" s="24"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="5"/>
-      <c r="AH14" s="21"/>
+      <c r="AH14" s="24"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="5"/>
-      <c r="AN14" s="21"/>
+      <c r="AN14" s="24"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -8814,26 +8763,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW14" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:49">
-      <c r="A15" s="19" t="s">
+    </row>
+    <row r="15" spans="1:47">
+      <c r="A15" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="24">
         <v>5</v>
       </c>
       <c r="E15">
@@ -8843,10 +8784,10 @@
         <v>500000</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="21">
+      <c r="J15" s="24">
         <v>5</v>
       </c>
       <c r="K15" s="4">
@@ -8856,11 +8797,11 @@
         <v>355000</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="21">
+      <c r="P15" s="24">
         <v>5</v>
       </c>
       <c r="Q15" s="4">
@@ -8870,11 +8811,11 @@
         <v>384500</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="T15" s="4"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="21">
+      <c r="V15" s="24">
         <v>5</v>
       </c>
       <c r="W15" s="4">
@@ -8884,23 +8825,23 @@
         <v>395000</v>
       </c>
       <c r="Y15" s="15" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="21"/>
+      <c r="AB15" s="24"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="5"/>
-      <c r="AH15" s="21"/>
+      <c r="AH15" s="24"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
       <c r="AM15" s="5"/>
-      <c r="AN15" s="21"/>
+      <c r="AN15" s="24"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -8914,26 +8855,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV15" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:49">
-      <c r="A16" s="19" t="s">
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="24">
         <v>15</v>
       </c>
       <c r="E16">
@@ -8946,7 +8879,7 @@
         <v>87</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="21">
+      <c r="J16" s="24">
         <v>5</v>
       </c>
       <c r="K16" s="4">
@@ -8956,11 +8889,11 @@
         <v>400000</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="21">
+      <c r="P16" s="24">
         <v>5</v>
       </c>
       <c r="Q16" s="4">
@@ -8970,29 +8903,29 @@
         <v>425000</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="21"/>
+      <c r="V16" s="24"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="21"/>
+      <c r="AB16" s="24"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="5"/>
-      <c r="AH16" s="21"/>
+      <c r="AH16" s="24"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="5"/>
-      <c r="AN16" s="21"/>
+      <c r="AN16" s="24"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -9006,26 +8939,18 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AV16" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:49">
-      <c r="A17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="24">
         <v>10</v>
       </c>
       <c r="E17">
@@ -9038,7 +8963,7 @@
         <v>92</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="21">
+      <c r="J17" s="24">
         <v>5</v>
       </c>
       <c r="K17" s="4">
@@ -9048,11 +8973,11 @@
         <v>300000</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="21">
+      <c r="P17" s="24">
         <v>5</v>
       </c>
       <c r="Q17" s="4">
@@ -9062,11 +8987,11 @@
         <v>390000</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="T17" s="4"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="21">
+      <c r="V17" s="24">
         <v>5</v>
       </c>
       <c r="W17" s="4">
@@ -9077,23 +9002,23 @@
         <v>375000</v>
       </c>
       <c r="Y17" s="15" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="21"/>
+      <c r="AB17" s="24"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="5"/>
-      <c r="AH17" s="21"/>
+      <c r="AH17" s="24"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="5"/>
-      <c r="AN17" s="21"/>
+      <c r="AN17" s="24"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -9107,26 +9032,18 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AV17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:49">
-      <c r="A18" s="19" t="s">
+    </row>
+    <row r="18" spans="1:47">
+      <c r="A18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="24">
         <v>5</v>
       </c>
       <c r="E18">
@@ -9136,10 +9053,10 @@
         <v>260000</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="21">
+      <c r="J18" s="24">
         <v>5</v>
       </c>
       <c r="K18" s="4">
@@ -9149,11 +9066,11 @@
         <v>450000</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="21">
+      <c r="P18" s="24">
         <v>5</v>
       </c>
       <c r="Q18" s="4">
@@ -9163,29 +9080,29 @@
         <v>450000</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="T18" s="4"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="21"/>
+      <c r="V18" s="24"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="15"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="21"/>
+      <c r="AB18" s="24"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="21"/>
+      <c r="AH18" s="24"/>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="5"/>
-      <c r="AN18" s="21"/>
+      <c r="AN18" s="24"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
@@ -9199,26 +9116,18 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AV18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW18" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:49">
-      <c r="A19" s="19" t="s">
+    </row>
+    <row r="19" spans="1:47">
+      <c r="A19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="24">
         <v>5</v>
       </c>
       <c r="E19">
@@ -9228,10 +9137,10 @@
         <v>39</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="21">
+      <c r="J19" s="24">
         <v>5</v>
       </c>
       <c r="K19" s="4">
@@ -9241,11 +9150,11 @@
         <v>335000</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="21">
+      <c r="P19" s="24">
         <v>5</v>
       </c>
       <c r="Q19" s="4">
@@ -9255,11 +9164,11 @@
         <v>365000</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="T19" s="4"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="21">
+      <c r="V19" s="24">
         <v>5</v>
       </c>
       <c r="W19" s="4">
@@ -9269,23 +9178,23 @@
         <v>365000</v>
       </c>
       <c r="Y19" s="15" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="21"/>
+      <c r="AB19" s="24"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="5"/>
-      <c r="AH19" s="21"/>
+      <c r="AH19" s="24"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="5"/>
-      <c r="AN19" s="21"/>
+      <c r="AN19" s="24"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
@@ -9299,26 +9208,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW19" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:49">
-      <c r="A20" s="19" t="s">
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="24">
         <v>10</v>
       </c>
       <c r="E20">
@@ -9328,10 +9229,10 @@
         <v>710000</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="21">
+      <c r="J20" s="24">
         <v>5</v>
       </c>
       <c r="K20" s="4">
@@ -9341,11 +9242,11 @@
         <v>375000</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="21">
+      <c r="P20" s="24">
         <v>5</v>
       </c>
       <c r="Q20" s="4">
@@ -9355,11 +9256,11 @@
         <v>390000</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="21">
+      <c r="V20" s="24">
         <v>5</v>
       </c>
       <c r="W20" s="4">
@@ -9369,23 +9270,23 @@
         <v>395000</v>
       </c>
       <c r="Y20" s="15" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="21"/>
+      <c r="AB20" s="24"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="5"/>
-      <c r="AH20" s="21"/>
+      <c r="AH20" s="24"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="5"/>
-      <c r="AN20" s="21"/>
+      <c r="AN20" s="24"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -9399,26 +9300,18 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AV20" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:49">
-      <c r="A21" s="19" t="s">
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="24">
         <v>5</v>
       </c>
       <c r="E21">
@@ -9428,10 +9321,10 @@
         <v>420000</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="21">
+      <c r="J21" s="24">
         <v>5</v>
       </c>
       <c r="K21" s="4">
@@ -9441,11 +9334,11 @@
         <v>340000</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="21">
+      <c r="P21" s="24">
         <v>5</v>
       </c>
       <c r="Q21" s="4">
@@ -9455,11 +9348,11 @@
         <v>365000</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="T21" s="4"/>
       <c r="U21" s="5"/>
-      <c r="V21" s="21">
+      <c r="V21" s="24">
         <v>5</v>
       </c>
       <c r="W21" s="4">
@@ -9469,23 +9362,23 @@
         <v>370000</v>
       </c>
       <c r="Y21" s="15" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="21"/>
+      <c r="AB21" s="24"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="21"/>
+      <c r="AH21" s="24"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="5"/>
-      <c r="AN21" s="21"/>
+      <c r="AN21" s="24"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -9499,26 +9392,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:49">
-      <c r="A22" s="19" t="s">
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="23" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="24">
         <v>5</v>
       </c>
       <c r="E22">
@@ -9528,10 +9413,10 @@
         <v>540000</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="21">
+      <c r="J22" s="24">
         <v>5</v>
       </c>
       <c r="K22" s="4">
@@ -9541,11 +9426,11 @@
         <v>345000</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="21">
+      <c r="P22" s="24">
         <v>5</v>
       </c>
       <c r="Q22" s="4">
@@ -9555,11 +9440,11 @@
         <v>355000</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="21">
+      <c r="V22" s="24">
         <v>5</v>
       </c>
       <c r="W22" s="4">
@@ -9569,23 +9454,23 @@
         <v>345000</v>
       </c>
       <c r="Y22" s="15" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Z22" s="4"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="21"/>
+      <c r="AB22" s="24"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="21"/>
+      <c r="AH22" s="24"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="5"/>
-      <c r="AN22" s="21"/>
+      <c r="AN22" s="24"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -9599,26 +9484,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:49">
-      <c r="A23" s="19" t="s">
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="24">
         <v>5</v>
       </c>
       <c r="E23">
@@ -9628,10 +9505,10 @@
         <v>240000</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="21">
+      <c r="J23" s="24">
         <v>5</v>
       </c>
       <c r="K23" s="4">
@@ -9641,11 +9518,11 @@
         <v>350000</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="21">
+      <c r="P23" s="24">
         <v>5</v>
       </c>
       <c r="Q23" s="4">
@@ -9655,11 +9532,11 @@
         <v>380000</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="T23" s="4"/>
       <c r="U23" s="5"/>
-      <c r="V23" s="21">
+      <c r="V23" s="24">
         <v>5</v>
       </c>
       <c r="W23" s="4">
@@ -9669,23 +9546,23 @@
         <v>365000</v>
       </c>
       <c r="Y23" s="15" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="21"/>
+      <c r="AB23" s="24"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="21"/>
+      <c r="AH23" s="24"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="5"/>
-      <c r="AN23" s="21"/>
+      <c r="AN23" s="24"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -9699,26 +9576,18 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="AV23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW23" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:49">
-      <c r="A24" s="19" t="s">
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="24">
         <v>5</v>
       </c>
       <c r="E24">
@@ -9728,10 +9597,10 @@
         <v>310000</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="21">
+      <c r="J24" s="24">
         <v>5</v>
       </c>
       <c r="K24" s="4">
@@ -9741,11 +9610,11 @@
         <v>325000</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="21">
+      <c r="P24" s="24">
         <v>5</v>
       </c>
       <c r="Q24" s="4">
@@ -9755,29 +9624,29 @@
         <v>310000</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="T24" s="4"/>
       <c r="U24" s="5"/>
-      <c r="V24" s="21"/>
+      <c r="V24" s="24"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="21"/>
+      <c r="AB24" s="24"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="21"/>
+      <c r="AH24" s="24"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="5"/>
-      <c r="AN24" s="21"/>
+      <c r="AN24" s="24"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -9791,26 +9660,18 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AV24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AW24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
     </row>
     <row r="25" spans="1:47">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>133</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="24">
         <v>10</v>
       </c>
       <c r="E25">
@@ -9823,7 +9684,7 @@
         <v>134</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="21">
+      <c r="J25" s="24">
         <v>5</v>
       </c>
       <c r="K25" s="4">
@@ -9833,11 +9694,11 @@
         <v>415000</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="21">
+      <c r="P25" s="24">
         <v>5</v>
       </c>
       <c r="Q25" s="4">
@@ -9847,29 +9708,29 @@
         <v>415000</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="T25" s="4"/>
       <c r="U25" s="5"/>
-      <c r="V25" s="21"/>
+      <c r="V25" s="24"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="21"/>
+      <c r="AB25" s="24"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
       <c r="AG25" s="5"/>
-      <c r="AH25" s="21"/>
+      <c r="AH25" s="24"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="5"/>
-      <c r="AN25" s="21"/>
+      <c r="AN25" s="24"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -9885,16 +9746,16 @@
       </c>
     </row>
     <row r="26" spans="1:47">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>139</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="24">
         <v>15</v>
       </c>
       <c r="E26">
@@ -9907,7 +9768,7 @@
         <v>140</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="21">
+      <c r="J26" s="24">
         <v>15</v>
       </c>
       <c r="K26" s="4">
@@ -9917,35 +9778,35 @@
         <v>1380000</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="5"/>
-      <c r="P26" s="21"/>
+      <c r="P26" s="24"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="15"/>
       <c r="T26" s="4"/>
       <c r="U26" s="5"/>
-      <c r="V26" s="21"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="21"/>
+      <c r="AB26" s="24"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="21"/>
+      <c r="AH26" s="24"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="5"/>
-      <c r="AN26" s="21"/>
+      <c r="AN26" s="24"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -9961,16 +9822,16 @@
       </c>
     </row>
     <row r="27" spans="1:47">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="24">
         <v>5</v>
       </c>
       <c r="E27">
@@ -9980,10 +9841,10 @@
         <v>230000</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="21">
+      <c r="J27" s="24">
         <v>5</v>
       </c>
       <c r="K27" s="4">
@@ -9993,11 +9854,11 @@
         <v>330000</v>
       </c>
       <c r="M27" s="15" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="21">
+      <c r="P27" s="24">
         <v>5</v>
       </c>
       <c r="Q27" s="4">
@@ -10007,11 +9868,11 @@
         <v>330000</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="5"/>
-      <c r="V27" s="21">
+      <c r="V27" s="24">
         <v>5</v>
       </c>
       <c r="W27" s="4">
@@ -10021,23 +9882,23 @@
         <v>335000</v>
       </c>
       <c r="Y27" s="15" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="21"/>
+      <c r="AB27" s="24"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="21"/>
+      <c r="AH27" s="24"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="5"/>
-      <c r="AN27" s="21"/>
+      <c r="AN27" s="24"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -10053,16 +9914,16 @@
       </c>
     </row>
     <row r="28" spans="1:47">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>148</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="24">
         <v>5</v>
       </c>
       <c r="E28">
@@ -10072,10 +9933,10 @@
         <v>400000</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="21">
+      <c r="J28" s="24">
         <v>5</v>
       </c>
       <c r="K28" s="4">
@@ -10085,11 +9946,11 @@
         <v>400000</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="5"/>
-      <c r="P28" s="21">
+      <c r="P28" s="24">
         <v>5</v>
       </c>
       <c r="Q28" s="4">
@@ -10099,11 +9960,11 @@
         <v>425000</v>
       </c>
       <c r="S28" s="15" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="T28" s="4"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="21">
+      <c r="V28" s="24">
         <v>5</v>
       </c>
       <c r="W28" s="4">
@@ -10113,23 +9974,23 @@
         <v>400000</v>
       </c>
       <c r="Y28" s="15" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="21"/>
+      <c r="AB28" s="24"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="21"/>
+      <c r="AH28" s="24"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="5"/>
-      <c r="AN28" s="21"/>
+      <c r="AN28" s="24"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
@@ -10145,18 +10006,18 @@
       </c>
     </row>
     <row r="29" spans="1:47">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>153</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="24"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="21">
+      <c r="J29" s="24">
         <v>15</v>
       </c>
       <c r="K29" s="4">
@@ -10166,11 +10027,11 @@
         <v>885000</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="5"/>
-      <c r="P29" s="21">
+      <c r="P29" s="24">
         <v>5</v>
       </c>
       <c r="Q29" s="4">
@@ -10180,29 +10041,29 @@
         <v>295000</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="21"/>
+      <c r="V29" s="24"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="21"/>
+      <c r="AB29" s="24"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="5"/>
-      <c r="AH29" s="21"/>
+      <c r="AH29" s="24"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="5"/>
-      <c r="AN29" s="21"/>
+      <c r="AN29" s="24"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -10218,16 +10079,16 @@
       </c>
     </row>
     <row r="30" spans="1:47">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="23" t="s">
         <v>156</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="24">
         <v>5</v>
       </c>
       <c r="E30">
@@ -10237,10 +10098,10 @@
         <v>455000</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="21">
+      <c r="J30" s="24">
         <v>5</v>
       </c>
       <c r="K30" s="4">
@@ -10250,11 +10111,11 @@
         <v>445000</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="5"/>
-      <c r="P30" s="21">
+      <c r="P30" s="24">
         <v>5</v>
       </c>
       <c r="Q30" s="4">
@@ -10264,11 +10125,11 @@
         <v>445000</v>
       </c>
       <c r="S30" s="15" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="21">
+      <c r="V30" s="24">
         <v>5</v>
       </c>
       <c r="W30" s="4">
@@ -10278,23 +10139,23 @@
         <v>465000</v>
       </c>
       <c r="Y30" s="15" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="21"/>
+      <c r="AB30" s="24"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="21"/>
+      <c r="AH30" s="24"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4"/>
       <c r="AM30" s="5"/>
-      <c r="AN30" s="21"/>
+      <c r="AN30" s="24"/>
       <c r="AO30" s="4"/>
       <c r="AP30" s="4"/>
       <c r="AQ30" s="4"/>
@@ -10310,16 +10171,16 @@
       </c>
     </row>
     <row r="31" spans="1:47">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="23" t="s">
         <v>161</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="24">
         <v>5</v>
       </c>
       <c r="E31">
@@ -10329,10 +10190,10 @@
         <v>270000</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="21">
+      <c r="J31" s="24">
         <v>5</v>
       </c>
       <c r="K31" s="4">
@@ -10342,11 +10203,11 @@
         <v>365000</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="5"/>
-      <c r="P31" s="21">
+      <c r="P31" s="24">
         <v>5</v>
       </c>
       <c r="Q31" s="4">
@@ -10356,11 +10217,11 @@
         <v>380000</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="5"/>
-      <c r="V31" s="21">
+      <c r="V31" s="24">
         <v>5</v>
       </c>
       <c r="W31" s="4">
@@ -10373,19 +10234,19 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
-      <c r="AB31" s="21"/>
+      <c r="AB31" s="24"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
       <c r="AG31" s="5"/>
-      <c r="AH31" s="21"/>
+      <c r="AH31" s="24"/>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4"/>
       <c r="AM31" s="5"/>
-      <c r="AN31" s="21"/>
+      <c r="AN31" s="24"/>
       <c r="AO31" s="4"/>
       <c r="AP31" s="4"/>
       <c r="AQ31" s="4"/>
@@ -10401,16 +10262,16 @@
       </c>
     </row>
     <row r="32" spans="1:47">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="23" t="s">
         <v>166</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="24">
         <v>5</v>
       </c>
       <c r="E32">
@@ -10420,10 +10281,10 @@
         <v>450000</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="21">
+      <c r="J32" s="24">
         <v>5</v>
       </c>
       <c r="K32" s="4">
@@ -10433,11 +10294,11 @@
         <v>370000</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="5"/>
-      <c r="P32" s="21">
+      <c r="P32" s="24">
         <v>5</v>
       </c>
       <c r="Q32" s="4">
@@ -10447,11 +10308,11 @@
         <v>340000</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="5"/>
-      <c r="V32" s="21">
+      <c r="V32" s="24">
         <v>5</v>
       </c>
       <c r="W32" s="4">
@@ -10461,23 +10322,23 @@
         <v>400000</v>
       </c>
       <c r="Y32" s="15" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="21"/>
+      <c r="AB32" s="24"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
       <c r="AG32" s="5"/>
-      <c r="AH32" s="21"/>
+      <c r="AH32" s="24"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4"/>
       <c r="AM32" s="5"/>
-      <c r="AN32" s="21"/>
+      <c r="AN32" s="24"/>
       <c r="AO32" s="4"/>
       <c r="AP32" s="4"/>
       <c r="AQ32" s="4"/>
@@ -10493,16 +10354,16 @@
       </c>
     </row>
     <row r="33" spans="1:47">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>171</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="24">
         <v>10</v>
       </c>
       <c r="E33">
@@ -10515,7 +10376,7 @@
         <v>172</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="21">
+      <c r="J33" s="24">
         <v>10</v>
       </c>
       <c r="K33" s="4">
@@ -10525,11 +10386,11 @@
         <v>890000</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="21">
+      <c r="P33" s="24">
         <v>10</v>
       </c>
       <c r="Q33" s="4">
@@ -10543,7 +10404,7 @@
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="5"/>
-      <c r="V33" s="21">
+      <c r="V33" s="24">
         <v>5</v>
       </c>
       <c r="W33" s="4">
@@ -10553,23 +10414,23 @@
         <v>360000</v>
       </c>
       <c r="Y33" s="15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="21"/>
+      <c r="AB33" s="24"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="5"/>
-      <c r="AH33" s="21"/>
+      <c r="AH33" s="24"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4"/>
       <c r="AM33" s="5"/>
-      <c r="AN33" s="21"/>
+      <c r="AN33" s="24"/>
       <c r="AO33" s="4"/>
       <c r="AP33" s="4"/>
       <c r="AQ33" s="4"/>
@@ -10585,16 +10446,16 @@
       </c>
     </row>
     <row r="34" spans="1:47">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="24">
         <v>11</v>
       </c>
       <c r="E34">
@@ -10607,7 +10468,7 @@
         <v>177</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="21">
+      <c r="J34" s="24">
         <v>5</v>
       </c>
       <c r="K34" s="4">
@@ -10617,11 +10478,11 @@
         <v>380000</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="5"/>
-      <c r="P34" s="21">
+      <c r="P34" s="24">
         <v>11</v>
       </c>
       <c r="Q34" s="4">
@@ -10635,7 +10496,7 @@
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="5"/>
-      <c r="V34" s="21">
+      <c r="V34" s="24">
         <v>5</v>
       </c>
       <c r="W34" s="4">
@@ -10645,23 +10506,23 @@
         <v>400000</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="21"/>
+      <c r="AB34" s="24"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="5"/>
-      <c r="AH34" s="21"/>
+      <c r="AH34" s="24"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="5"/>
-      <c r="AN34" s="21"/>
+      <c r="AN34" s="24"/>
       <c r="AO34" s="4"/>
       <c r="AP34" s="4"/>
       <c r="AQ34" s="4"/>
@@ -10677,16 +10538,16 @@
       </c>
     </row>
     <row r="35" spans="1:47">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="23" t="s">
         <v>181</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="24">
         <v>7</v>
       </c>
       <c r="E35">
@@ -10696,10 +10557,10 @@
         <v>763000</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="21">
+      <c r="J35" s="24">
         <v>7</v>
       </c>
       <c r="K35" s="4">
@@ -10709,11 +10570,11 @@
         <v>700000</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="5"/>
-      <c r="P35" s="21">
+      <c r="P35" s="24">
         <v>7</v>
       </c>
       <c r="Q35" s="4">
@@ -10723,11 +10584,11 @@
         <v>490000</v>
       </c>
       <c r="S35" s="15" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="T35" s="4"/>
       <c r="U35" s="5"/>
-      <c r="V35" s="21">
+      <c r="V35" s="24">
         <v>5</v>
       </c>
       <c r="W35" s="4">
@@ -10737,23 +10598,23 @@
         <v>400000</v>
       </c>
       <c r="Y35" s="15" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Z35" s="4"/>
       <c r="AA35" s="5"/>
-      <c r="AB35" s="21"/>
+      <c r="AB35" s="24"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="5"/>
-      <c r="AH35" s="21"/>
+      <c r="AH35" s="24"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="5"/>
-      <c r="AN35" s="21"/>
+      <c r="AN35" s="24"/>
       <c r="AO35" s="4"/>
       <c r="AP35" s="4"/>
       <c r="AQ35" s="4"/>
@@ -10769,16 +10630,16 @@
       </c>
     </row>
     <row r="36" spans="1:47">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="23" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="24">
         <v>5</v>
       </c>
       <c r="E36">
@@ -10788,10 +10649,10 @@
         <v>435550</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="21">
+      <c r="J36" s="24">
         <v>5</v>
       </c>
       <c r="K36" s="4">
@@ -10801,11 +10662,11 @@
         <v>397230</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="5"/>
-      <c r="P36" s="21">
+      <c r="P36" s="24">
         <v>5</v>
       </c>
       <c r="Q36" s="4">
@@ -10815,11 +10676,11 @@
         <v>435500</v>
       </c>
       <c r="S36" s="15" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="5"/>
-      <c r="V36" s="21">
+      <c r="V36" s="24">
         <v>5</v>
       </c>
       <c r="W36" s="4">
@@ -10829,23 +10690,23 @@
         <v>414400</v>
       </c>
       <c r="Y36" s="15" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Z36" s="4"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="21"/>
+      <c r="AB36" s="24"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="5"/>
-      <c r="AH36" s="21"/>
+      <c r="AH36" s="24"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="5"/>
-      <c r="AN36" s="21"/>
+      <c r="AN36" s="24"/>
       <c r="AO36" s="4"/>
       <c r="AP36" s="4"/>
       <c r="AQ36" s="4"/>
@@ -10861,16 +10722,16 @@
       </c>
     </row>
     <row r="37" spans="1:47">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="23" t="s">
         <v>188</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="24">
         <v>10</v>
       </c>
       <c r="E37">
@@ -10883,7 +10744,7 @@
         <v>189</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="21">
+      <c r="J37" s="24">
         <v>5</v>
       </c>
       <c r="K37" s="4">
@@ -10893,11 +10754,11 @@
         <v>365000</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="5"/>
-      <c r="P37" s="21">
+      <c r="P37" s="24">
         <v>5</v>
       </c>
       <c r="Q37" s="4">
@@ -10907,11 +10768,11 @@
         <v>375000</v>
       </c>
       <c r="S37" s="15" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="T37" s="4"/>
       <c r="U37" s="5"/>
-      <c r="V37" s="21">
+      <c r="V37" s="24">
         <v>5</v>
       </c>
       <c r="W37" s="4">
@@ -10921,23 +10782,23 @@
         <v>385000</v>
       </c>
       <c r="Y37" s="15" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="5"/>
-      <c r="AB37" s="21"/>
+      <c r="AB37" s="24"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="5"/>
-      <c r="AH37" s="21"/>
+      <c r="AH37" s="24"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
       <c r="AL37" s="4"/>
       <c r="AM37" s="5"/>
-      <c r="AN37" s="21"/>
+      <c r="AN37" s="24"/>
       <c r="AO37" s="4"/>
       <c r="AP37" s="4"/>
       <c r="AQ37" s="4"/>
@@ -10953,16 +10814,16 @@
       </c>
     </row>
     <row r="38" spans="1:47">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="23" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="24">
         <v>10</v>
       </c>
       <c r="E38">
@@ -10975,7 +10836,7 @@
         <v>194</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="21">
+      <c r="J38" s="24">
         <v>6</v>
       </c>
       <c r="K38" s="4">
@@ -10985,11 +10846,11 @@
         <v>432000</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="21">
+      <c r="P38" s="24">
         <v>5</v>
       </c>
       <c r="Q38" s="4">
@@ -10999,29 +10860,29 @@
         <v>360000</v>
       </c>
       <c r="S38" s="15" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="T38" s="4"/>
       <c r="U38" s="5"/>
-      <c r="V38" s="21"/>
+      <c r="V38" s="24"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="15"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="5"/>
-      <c r="AB38" s="21"/>
+      <c r="AB38" s="24"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="5"/>
-      <c r="AH38" s="21"/>
+      <c r="AH38" s="24"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="5"/>
-      <c r="AN38" s="21"/>
+      <c r="AN38" s="24"/>
       <c r="AO38" s="4"/>
       <c r="AP38" s="4"/>
       <c r="AQ38" s="4"/>
@@ -11037,16 +10898,16 @@
       </c>
     </row>
     <row r="39" spans="1:47">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="23" t="s">
         <v>197</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="24">
         <v>10</v>
       </c>
       <c r="E39">
@@ -11059,7 +10920,7 @@
         <v>198</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="21">
+      <c r="J39" s="24">
         <v>10</v>
       </c>
       <c r="K39" s="4">
@@ -11073,31 +10934,31 @@
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="5"/>
-      <c r="P39" s="21"/>
+      <c r="P39" s="24"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="15"/>
       <c r="T39" s="4"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="21"/>
+      <c r="V39" s="24"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
-      <c r="AB39" s="21"/>
+      <c r="AB39" s="24"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="5"/>
-      <c r="AH39" s="21"/>
+      <c r="AH39" s="24"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="5"/>
-      <c r="AN39" s="21"/>
+      <c r="AN39" s="24"/>
       <c r="AO39" s="4"/>
       <c r="AP39" s="4"/>
       <c r="AQ39" s="4"/>
@@ -11113,16 +10974,16 @@
       </c>
     </row>
     <row r="40" spans="1:47">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="23" t="s">
         <v>202</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="24">
         <v>10</v>
       </c>
       <c r="E40">
@@ -11135,7 +10996,7 @@
         <v>203</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="21">
+      <c r="J40" s="24">
         <v>10</v>
       </c>
       <c r="K40" s="4">
@@ -11149,7 +11010,7 @@
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="5"/>
-      <c r="P40" s="21">
+      <c r="P40" s="24">
         <v>10</v>
       </c>
       <c r="Q40" s="4">
@@ -11163,25 +11024,25 @@
       </c>
       <c r="T40" s="4"/>
       <c r="U40" s="5"/>
-      <c r="V40" s="21"/>
+      <c r="V40" s="24"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="5"/>
-      <c r="AB40" s="21"/>
+      <c r="AB40" s="24"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="5"/>
-      <c r="AH40" s="21"/>
+      <c r="AH40" s="24"/>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="5"/>
-      <c r="AN40" s="21"/>
+      <c r="AN40" s="24"/>
       <c r="AO40" s="4"/>
       <c r="AP40" s="4"/>
       <c r="AQ40" s="4"/>
@@ -11197,16 +11058,16 @@
       </c>
     </row>
     <row r="41" spans="1:47">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="24">
         <v>10</v>
       </c>
       <c r="E41">
@@ -11219,7 +11080,7 @@
         <v>208</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="21">
+      <c r="J41" s="24">
         <v>10</v>
       </c>
       <c r="K41" s="4">
@@ -11233,7 +11094,7 @@
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="5"/>
-      <c r="P41" s="21">
+      <c r="P41" s="24">
         <v>10</v>
       </c>
       <c r="Q41" s="4">
@@ -11247,25 +11108,25 @@
       </c>
       <c r="T41" s="4"/>
       <c r="U41" s="5"/>
-      <c r="V41" s="21"/>
+      <c r="V41" s="24"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="21"/>
+      <c r="AB41" s="24"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
       <c r="AG41" s="5"/>
-      <c r="AH41" s="21"/>
+      <c r="AH41" s="24"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="5"/>
-      <c r="AN41" s="21"/>
+      <c r="AN41" s="24"/>
       <c r="AO41" s="4"/>
       <c r="AP41" s="4"/>
       <c r="AQ41" s="4"/>
@@ -11281,16 +11142,16 @@
       </c>
     </row>
     <row r="42" spans="1:47">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="23" t="s">
         <v>212</v>
       </c>
       <c r="C42" s="5">
         <v>1</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="24">
         <v>10</v>
       </c>
       <c r="E42">
@@ -11303,13 +11164,13 @@
         <v>213</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="21"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="15"/>
       <c r="N42" s="4"/>
       <c r="O42" s="5"/>
-      <c r="P42" s="21">
+      <c r="P42" s="24">
         <v>5</v>
       </c>
       <c r="Q42" s="4">
@@ -11319,11 +11180,11 @@
         <v>4249785</v>
       </c>
       <c r="S42" s="15" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="T42" s="4"/>
       <c r="U42" s="5"/>
-      <c r="V42" s="21">
+      <c r="V42" s="24">
         <v>15</v>
       </c>
       <c r="W42" s="4">
@@ -11333,23 +11194,23 @@
         <v>20100630</v>
       </c>
       <c r="Y42" s="15" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Z42" s="4"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="21"/>
+      <c r="AB42" s="24"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
       <c r="AG42" s="5"/>
-      <c r="AH42" s="21"/>
+      <c r="AH42" s="24"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="5"/>
-      <c r="AN42" s="21"/>
+      <c r="AN42" s="24"/>
       <c r="AO42" s="4"/>
       <c r="AP42" s="4"/>
       <c r="AQ42" s="4"/>
@@ -11365,16 +11226,16 @@
       </c>
     </row>
     <row r="43" spans="1:47">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="23" t="s">
         <v>223</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="24">
         <v>5</v>
       </c>
       <c r="E43">
@@ -11384,10 +11245,10 @@
         <v>520000</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="21">
+      <c r="J43" s="24">
         <v>10</v>
       </c>
       <c r="K43" s="4">
@@ -11397,11 +11258,11 @@
         <v>680000</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="5"/>
-      <c r="P43" s="21">
+      <c r="P43" s="24">
         <v>5</v>
       </c>
       <c r="Q43" s="4">
@@ -11411,11 +11272,11 @@
         <v>350000</v>
       </c>
       <c r="S43" s="15" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="T43" s="4"/>
       <c r="U43" s="5"/>
-      <c r="V43" s="21">
+      <c r="V43" s="24">
         <v>5</v>
       </c>
       <c r="W43" s="4">
@@ -11425,23 +11286,23 @@
         <v>370000</v>
       </c>
       <c r="Y43" s="15" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Z43" s="4"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="21"/>
+      <c r="AB43" s="24"/>
       <c r="AC43" s="4"/>
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
       <c r="AG43" s="5"/>
-      <c r="AH43" s="21"/>
+      <c r="AH43" s="24"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
       <c r="AL43" s="4"/>
       <c r="AM43" s="5"/>
-      <c r="AN43" s="21"/>
+      <c r="AN43" s="24"/>
       <c r="AO43" s="4"/>
       <c r="AP43" s="4"/>
       <c r="AQ43" s="4"/>
@@ -11457,16 +11318,16 @@
       </c>
     </row>
     <row r="44" spans="1:47">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="23" t="s">
         <v>226</v>
       </c>
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="24">
         <v>5</v>
       </c>
       <c r="E44">
@@ -11476,40 +11337,40 @@
         <v>350000</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="21"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="15"/>
       <c r="N44" s="4"/>
       <c r="O44" s="5"/>
-      <c r="P44" s="21"/>
+      <c r="P44" s="24"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="15"/>
       <c r="T44" s="4"/>
       <c r="U44" s="5"/>
-      <c r="V44" s="21"/>
+      <c r="V44" s="24"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="21"/>
+      <c r="AB44" s="24"/>
       <c r="AC44" s="4"/>
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
       <c r="AG44" s="5"/>
-      <c r="AH44" s="21"/>
+      <c r="AH44" s="24"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
       <c r="AL44" s="4"/>
       <c r="AM44" s="5"/>
-      <c r="AN44" s="21"/>
+      <c r="AN44" s="24"/>
       <c r="AO44" s="4"/>
       <c r="AP44" s="4"/>
       <c r="AQ44" s="4"/>
@@ -11525,24 +11386,24 @@
       </c>
     </row>
     <row r="45" spans="1:47">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="23" t="s">
         <v>229</v>
       </c>
       <c r="C45" s="5">
         <v>1</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="24"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="21"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="15"/>
       <c r="N45" s="4"/>
       <c r="O45" s="5"/>
-      <c r="P45" s="21">
+      <c r="P45" s="24">
         <v>15</v>
       </c>
       <c r="Q45" s="4" t="s">
@@ -11555,24 +11416,24 @@
       <c r="U45" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="V45" s="21"/>
+      <c r="V45" s="24"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="15"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="21"/>
+      <c r="AB45" s="24"/>
       <c r="AC45" s="4"/>
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
       <c r="AG45" s="5"/>
-      <c r="AH45" s="21"/>
+      <c r="AH45" s="24"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
       <c r="AL45" s="4"/>
       <c r="AM45" s="5"/>
-      <c r="AN45" s="21"/>
+      <c r="AN45" s="24"/>
       <c r="AO45" s="4"/>
       <c r="AP45" s="4"/>
       <c r="AQ45" s="4"/>
@@ -11588,16 +11449,16 @@
       </c>
     </row>
     <row r="46" spans="1:47">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="23" t="s">
         <v>234</v>
       </c>
       <c r="C46" s="5">
         <v>1</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="24">
         <v>5</v>
       </c>
       <c r="E46">
@@ -11607,10 +11468,10 @@
         <v>345000</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="21">
+      <c r="J46" s="24">
         <v>5</v>
       </c>
       <c r="K46" s="4">
@@ -11620,11 +11481,11 @@
         <v>385000</v>
       </c>
       <c r="M46" s="15" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="5"/>
-      <c r="P46" s="21">
+      <c r="P46" s="24">
         <v>5</v>
       </c>
       <c r="Q46" s="4">
@@ -11634,11 +11495,11 @@
         <v>375000</v>
       </c>
       <c r="S46" s="15" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="T46" s="4"/>
       <c r="U46" s="5"/>
-      <c r="V46" s="21">
+      <c r="V46" s="24">
         <v>5</v>
       </c>
       <c r="W46" s="4">
@@ -11648,23 +11509,23 @@
         <v>395000</v>
       </c>
       <c r="Y46" s="15" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Z46" s="4"/>
       <c r="AA46" s="5"/>
-      <c r="AB46" s="21"/>
+      <c r="AB46" s="24"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
       <c r="AG46" s="5"/>
-      <c r="AH46" s="21"/>
+      <c r="AH46" s="24"/>
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
       <c r="AL46" s="4"/>
       <c r="AM46" s="5"/>
-      <c r="AN46" s="21"/>
+      <c r="AN46" s="24"/>
       <c r="AO46" s="4"/>
       <c r="AP46" s="4"/>
       <c r="AQ46" s="4"/>
@@ -11680,18 +11541,18 @@
       </c>
     </row>
     <row r="47" spans="1:47">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="23" t="s">
         <v>236</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="24"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="21">
+      <c r="J47" s="24">
         <v>5</v>
       </c>
       <c r="K47" s="4">
@@ -11701,11 +11562,11 @@
         <v>335000</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="5"/>
-      <c r="P47" s="21">
+      <c r="P47" s="24">
         <v>10</v>
       </c>
       <c r="Q47" s="4">
@@ -11717,25 +11578,25 @@
       <c r="S47" s="15"/>
       <c r="T47" s="4"/>
       <c r="U47" s="5"/>
-      <c r="V47" s="21"/>
+      <c r="V47" s="24"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="15"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="5"/>
-      <c r="AB47" s="21"/>
+      <c r="AB47" s="24"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
       <c r="AG47" s="5"/>
-      <c r="AH47" s="21"/>
+      <c r="AH47" s="24"/>
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
       <c r="AL47" s="4"/>
       <c r="AM47" s="5"/>
-      <c r="AN47" s="21"/>
+      <c r="AN47" s="24"/>
       <c r="AO47" s="4"/>
       <c r="AP47" s="4"/>
       <c r="AQ47" s="4"/>
@@ -11751,26 +11612,26 @@
       </c>
     </row>
     <row r="48" spans="1:47">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="23" t="s">
         <v>238</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="24">
         <v>10</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>230</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="21">
+      <c r="J48" s="24">
         <v>7</v>
       </c>
       <c r="K48" s="4">
@@ -11780,11 +11641,11 @@
         <v>679000</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="5"/>
-      <c r="P48" s="21">
+      <c r="P48" s="24">
         <v>5</v>
       </c>
       <c r="Q48" s="4">
@@ -11794,11 +11655,11 @@
         <v>485000</v>
       </c>
       <c r="S48" s="15" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="T48" s="4"/>
       <c r="U48" s="5"/>
-      <c r="V48" s="21">
+      <c r="V48" s="24">
         <v>5</v>
       </c>
       <c r="W48" s="4">
@@ -11808,23 +11669,23 @@
         <v>485000</v>
       </c>
       <c r="Y48" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="5"/>
-      <c r="AB48" s="21"/>
+      <c r="AB48" s="24"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
       <c r="AG48" s="5"/>
-      <c r="AH48" s="21"/>
+      <c r="AH48" s="24"/>
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
       <c r="AL48" s="4"/>
       <c r="AM48" s="5"/>
-      <c r="AN48" s="21"/>
+      <c r="AN48" s="24"/>
       <c r="AO48" s="4"/>
       <c r="AP48" s="4"/>
       <c r="AQ48" s="4"/>
@@ -11840,18 +11701,18 @@
       </c>
     </row>
     <row r="49" spans="1:47">
-      <c r="A49" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>239</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
-      <c r="D49" s="21"/>
+      <c r="D49" s="24"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="21">
+      <c r="J49" s="24">
         <v>5</v>
       </c>
       <c r="K49" s="4">
@@ -11861,11 +11722,11 @@
         <v>450000</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="5"/>
-      <c r="P49" s="21">
+      <c r="P49" s="24">
         <v>5</v>
       </c>
       <c r="Q49" s="4">
@@ -11875,11 +11736,11 @@
         <v>460000</v>
       </c>
       <c r="S49" s="15" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="T49" s="4"/>
       <c r="U49" s="5"/>
-      <c r="V49" s="21">
+      <c r="V49" s="24">
         <v>5</v>
       </c>
       <c r="W49" s="4">
@@ -11889,23 +11750,23 @@
         <v>485000</v>
       </c>
       <c r="Y49" s="15" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="5"/>
-      <c r="AB49" s="21"/>
+      <c r="AB49" s="24"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
       <c r="AG49" s="5"/>
-      <c r="AH49" s="21"/>
+      <c r="AH49" s="24"/>
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
       <c r="AL49" s="4"/>
       <c r="AM49" s="5"/>
-      <c r="AN49" s="21"/>
+      <c r="AN49" s="24"/>
       <c r="AO49" s="4"/>
       <c r="AP49" s="4"/>
       <c r="AQ49" s="4"/>
@@ -11921,24 +11782,24 @@
       </c>
     </row>
     <row r="50" spans="1:47">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="23" t="s">
         <v>244</v>
       </c>
       <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D50" s="21"/>
+      <c r="D50" s="24"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="21"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="15"/>
       <c r="N50" s="4"/>
       <c r="O50" s="5"/>
-      <c r="P50" s="21">
+      <c r="P50" s="24">
         <v>10</v>
       </c>
       <c r="Q50" s="4">
@@ -11952,25 +11813,25 @@
       </c>
       <c r="T50" s="4"/>
       <c r="U50" s="5"/>
-      <c r="V50" s="21"/>
+      <c r="V50" s="24"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="15"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="5"/>
-      <c r="AB50" s="21"/>
+      <c r="AB50" s="24"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
       <c r="AG50" s="5"/>
-      <c r="AH50" s="21"/>
+      <c r="AH50" s="24"/>
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4"/>
       <c r="AL50" s="4"/>
       <c r="AM50" s="5"/>
-      <c r="AN50" s="21"/>
+      <c r="AN50" s="24"/>
       <c r="AO50" s="4"/>
       <c r="AP50" s="4"/>
       <c r="AQ50" s="4"/>
@@ -11986,16 +11847,16 @@
       </c>
     </row>
     <row r="51" spans="1:47">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="23" t="s">
         <v>250</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="24">
         <v>10</v>
       </c>
       <c r="E51">
@@ -12008,37 +11869,37 @@
         <v>251</v>
       </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="21"/>
+      <c r="J51" s="24"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="15"/>
       <c r="N51" s="4"/>
       <c r="O51" s="5"/>
-      <c r="P51" s="21"/>
+      <c r="P51" s="24"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="15"/>
       <c r="T51" s="4"/>
       <c r="U51" s="5"/>
-      <c r="V51" s="21"/>
+      <c r="V51" s="24"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="15"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="5"/>
-      <c r="AB51" s="21"/>
+      <c r="AB51" s="24"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
       <c r="AG51" s="5"/>
-      <c r="AH51" s="21"/>
+      <c r="AH51" s="24"/>
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4"/>
       <c r="AL51" s="4"/>
       <c r="AM51" s="5"/>
-      <c r="AN51" s="21"/>
+      <c r="AN51" s="24"/>
       <c r="AO51" s="4"/>
       <c r="AP51" s="4"/>
       <c r="AQ51" s="4"/>
@@ -12054,18 +11915,18 @@
       </c>
     </row>
     <row r="52" spans="1:47">
-      <c r="A52" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B52" s="23" t="s">
         <v>252</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
       </c>
-      <c r="D52" s="21"/>
+      <c r="D52" s="24"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="21">
+      <c r="J52" s="24">
         <v>5</v>
       </c>
       <c r="K52" s="4">
@@ -12075,11 +11936,11 @@
         <v>310000</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="5"/>
-      <c r="P52" s="21">
+      <c r="P52" s="24">
         <v>5</v>
       </c>
       <c r="Q52" s="4">
@@ -12089,29 +11950,29 @@
         <v>320000</v>
       </c>
       <c r="S52" s="15" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="T52" s="4"/>
       <c r="U52" s="5"/>
-      <c r="V52" s="21"/>
+      <c r="V52" s="24"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="15"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="5"/>
-      <c r="AB52" s="21"/>
+      <c r="AB52" s="24"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="5"/>
-      <c r="AH52" s="21"/>
+      <c r="AH52" s="24"/>
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
       <c r="AL52" s="4"/>
       <c r="AM52" s="5"/>
-      <c r="AN52" s="21"/>
+      <c r="AN52" s="24"/>
       <c r="AO52" s="4"/>
       <c r="AP52" s="4"/>
       <c r="AQ52" s="4"/>
@@ -12127,16 +11988,16 @@
       </c>
     </row>
     <row r="53" spans="1:47">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="23" t="s">
         <v>254</v>
       </c>
       <c r="C53" s="5">
         <v>1</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="24">
         <v>5</v>
       </c>
       <c r="E53">
@@ -12146,24 +12007,24 @@
         <v>725000</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="21"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="15"/>
       <c r="N53" s="4"/>
       <c r="O53" s="5"/>
-      <c r="P53" s="21"/>
+      <c r="P53" s="24"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="15" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="T53" s="4"/>
       <c r="U53" s="5"/>
-      <c r="V53" s="21">
+      <c r="V53" s="24">
         <v>5</v>
       </c>
       <c r="W53" s="4">
@@ -12173,23 +12034,23 @@
         <v>745000</v>
       </c>
       <c r="Y53" s="15" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Z53" s="4"/>
       <c r="AA53" s="5"/>
-      <c r="AB53" s="21"/>
+      <c r="AB53" s="24"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
       <c r="AG53" s="5"/>
-      <c r="AH53" s="21"/>
+      <c r="AH53" s="24"/>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
       <c r="AL53" s="4"/>
       <c r="AM53" s="5"/>
-      <c r="AN53" s="21"/>
+      <c r="AN53" s="24"/>
       <c r="AO53" s="4"/>
       <c r="AP53" s="4"/>
       <c r="AQ53" s="4"/>
@@ -12205,48 +12066,48 @@
       </c>
     </row>
     <row r="54" spans="1:47">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="23" t="s">
         <v>258</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
       </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="24"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="21"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="15"/>
       <c r="N54" s="4"/>
       <c r="O54" s="5"/>
-      <c r="P54" s="21"/>
+      <c r="P54" s="24"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="15"/>
       <c r="T54" s="4"/>
       <c r="U54" s="5"/>
-      <c r="V54" s="21"/>
+      <c r="V54" s="24"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="15"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="5"/>
-      <c r="AB54" s="21"/>
+      <c r="AB54" s="24"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
       <c r="AG54" s="5"/>
-      <c r="AH54" s="21"/>
+      <c r="AH54" s="24"/>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
       <c r="AL54" s="4"/>
       <c r="AM54" s="5"/>
-      <c r="AN54" s="21"/>
+      <c r="AN54" s="24"/>
       <c r="AO54" s="4"/>
       <c r="AP54" s="4"/>
       <c r="AQ54" s="4"/>
@@ -12262,48 +12123,48 @@
       </c>
     </row>
     <row r="55" spans="1:47">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="23" t="s">
         <v>260</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
-      <c r="D55" s="21"/>
+      <c r="D55" s="24"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="21"/>
+      <c r="J55" s="24"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="15"/>
       <c r="N55" s="4"/>
       <c r="O55" s="5"/>
-      <c r="P55" s="21"/>
+      <c r="P55" s="24"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="15"/>
       <c r="T55" s="4"/>
       <c r="U55" s="5"/>
-      <c r="V55" s="21"/>
+      <c r="V55" s="24"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="15"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="5"/>
-      <c r="AB55" s="21"/>
+      <c r="AB55" s="24"/>
       <c r="AC55" s="4"/>
       <c r="AD55" s="4"/>
       <c r="AE55" s="4"/>
       <c r="AF55" s="4"/>
       <c r="AG55" s="5"/>
-      <c r="AH55" s="21"/>
+      <c r="AH55" s="24"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4"/>
       <c r="AL55" s="4"/>
       <c r="AM55" s="5"/>
-      <c r="AN55" s="21"/>
+      <c r="AN55" s="24"/>
       <c r="AO55" s="4"/>
       <c r="AP55" s="4"/>
       <c r="AQ55" s="4"/>
@@ -12319,48 +12180,48 @@
       </c>
     </row>
     <row r="56" spans="1:47">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="23" t="s">
         <v>262</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
       </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="24"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="21"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="15"/>
       <c r="N56" s="4"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="21"/>
+      <c r="P56" s="24"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="15"/>
       <c r="T56" s="4"/>
       <c r="U56" s="5"/>
-      <c r="V56" s="21"/>
+      <c r="V56" s="24"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="15"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="5"/>
-      <c r="AB56" s="21"/>
+      <c r="AB56" s="24"/>
       <c r="AC56" s="4"/>
       <c r="AD56" s="4"/>
       <c r="AE56" s="4"/>
       <c r="AF56" s="4"/>
       <c r="AG56" s="5"/>
-      <c r="AH56" s="21"/>
+      <c r="AH56" s="24"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
       <c r="AL56" s="4"/>
       <c r="AM56" s="5"/>
-      <c r="AN56" s="21"/>
+      <c r="AN56" s="24"/>
       <c r="AO56" s="4"/>
       <c r="AP56" s="4"/>
       <c r="AQ56" s="4"/>
@@ -12376,48 +12237,48 @@
       </c>
     </row>
     <row r="57" spans="1:47">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="23" t="s">
         <v>264</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
       </c>
-      <c r="D57" s="21"/>
+      <c r="D57" s="24"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="21"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="15"/>
       <c r="N57" s="4"/>
       <c r="O57" s="5"/>
-      <c r="P57" s="21"/>
+      <c r="P57" s="24"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="15"/>
       <c r="T57" s="4"/>
       <c r="U57" s="5"/>
-      <c r="V57" s="21"/>
+      <c r="V57" s="24"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="15"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="5"/>
-      <c r="AB57" s="21"/>
+      <c r="AB57" s="24"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
       <c r="AG57" s="5"/>
-      <c r="AH57" s="21"/>
+      <c r="AH57" s="24"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
       <c r="AL57" s="4"/>
       <c r="AM57" s="5"/>
-      <c r="AN57" s="21"/>
+      <c r="AN57" s="24"/>
       <c r="AO57" s="4"/>
       <c r="AP57" s="4"/>
       <c r="AQ57" s="4"/>
@@ -12433,48 +12294,48 @@
       </c>
     </row>
     <row r="58" spans="1:47">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="23" t="s">
         <v>266</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
       </c>
-      <c r="D58" s="21"/>
+      <c r="D58" s="24"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="21"/>
+      <c r="J58" s="24"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="15"/>
       <c r="N58" s="4"/>
       <c r="O58" s="5"/>
-      <c r="P58" s="21"/>
+      <c r="P58" s="24"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="15"/>
       <c r="T58" s="4"/>
       <c r="U58" s="5"/>
-      <c r="V58" s="21"/>
+      <c r="V58" s="24"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="15"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="5"/>
-      <c r="AB58" s="21"/>
+      <c r="AB58" s="24"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
       <c r="AG58" s="5"/>
-      <c r="AH58" s="21"/>
+      <c r="AH58" s="24"/>
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
       <c r="AL58" s="4"/>
       <c r="AM58" s="5"/>
-      <c r="AN58" s="21"/>
+      <c r="AN58" s="24"/>
       <c r="AO58" s="4"/>
       <c r="AP58" s="4"/>
       <c r="AQ58" s="4"/>
@@ -12490,48 +12351,48 @@
       </c>
     </row>
     <row r="59" spans="1:47">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="23" t="s">
         <v>268</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
       </c>
-      <c r="D59" s="21"/>
+      <c r="D59" s="24"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="21"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="15"/>
       <c r="N59" s="4"/>
       <c r="O59" s="5"/>
-      <c r="P59" s="21"/>
+      <c r="P59" s="24"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="15"/>
       <c r="T59" s="4"/>
       <c r="U59" s="5"/>
-      <c r="V59" s="21"/>
+      <c r="V59" s="24"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="15"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="5"/>
-      <c r="AB59" s="21"/>
+      <c r="AB59" s="24"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
       <c r="AG59" s="5"/>
-      <c r="AH59" s="21"/>
+      <c r="AH59" s="24"/>
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4"/>
       <c r="AL59" s="4"/>
       <c r="AM59" s="5"/>
-      <c r="AN59" s="21"/>
+      <c r="AN59" s="24"/>
       <c r="AO59" s="4"/>
       <c r="AP59" s="4"/>
       <c r="AQ59" s="4"/>
@@ -12547,48 +12408,48 @@
       </c>
     </row>
     <row r="60" spans="1:47">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="23" t="s">
         <v>270</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
       </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="24"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="21"/>
+      <c r="J60" s="24"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="15"/>
       <c r="N60" s="4"/>
       <c r="O60" s="5"/>
-      <c r="P60" s="21"/>
+      <c r="P60" s="24"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="15"/>
       <c r="T60" s="4"/>
       <c r="U60" s="5"/>
-      <c r="V60" s="21"/>
+      <c r="V60" s="24"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="15"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="5"/>
-      <c r="AB60" s="21"/>
+      <c r="AB60" s="24"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
       <c r="AG60" s="5"/>
-      <c r="AH60" s="21"/>
+      <c r="AH60" s="24"/>
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
       <c r="AL60" s="4"/>
       <c r="AM60" s="5"/>
-      <c r="AN60" s="21"/>
+      <c r="AN60" s="24"/>
       <c r="AO60" s="4"/>
       <c r="AP60" s="4"/>
       <c r="AQ60" s="4"/>
@@ -12604,48 +12465,48 @@
       </c>
     </row>
     <row r="61" spans="1:47">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="23" t="s">
         <v>272</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
       </c>
-      <c r="D61" s="21"/>
+      <c r="D61" s="24"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="21"/>
+      <c r="J61" s="24"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="15"/>
       <c r="N61" s="4"/>
       <c r="O61" s="5"/>
-      <c r="P61" s="21"/>
+      <c r="P61" s="24"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="15"/>
       <c r="T61" s="4"/>
       <c r="U61" s="5"/>
-      <c r="V61" s="21"/>
+      <c r="V61" s="24"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="15"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="5"/>
-      <c r="AB61" s="21"/>
+      <c r="AB61" s="24"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
       <c r="AG61" s="5"/>
-      <c r="AH61" s="21"/>
+      <c r="AH61" s="24"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
       <c r="AL61" s="4"/>
       <c r="AM61" s="5"/>
-      <c r="AN61" s="21"/>
+      <c r="AN61" s="24"/>
       <c r="AO61" s="4"/>
       <c r="AP61" s="4"/>
       <c r="AQ61" s="4"/>
@@ -12661,48 +12522,48 @@
       </c>
     </row>
     <row r="62" spans="1:47">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="23" t="s">
         <v>274</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
       </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="24"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="21"/>
+      <c r="J62" s="24"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="15"/>
       <c r="N62" s="4"/>
       <c r="O62" s="5"/>
-      <c r="P62" s="21"/>
+      <c r="P62" s="24"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="15"/>
       <c r="T62" s="4"/>
       <c r="U62" s="5"/>
-      <c r="V62" s="21"/>
+      <c r="V62" s="24"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="15"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="5"/>
-      <c r="AB62" s="21"/>
+      <c r="AB62" s="24"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
       <c r="AG62" s="5"/>
-      <c r="AH62" s="21"/>
+      <c r="AH62" s="24"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="5"/>
-      <c r="AN62" s="21"/>
+      <c r="AN62" s="24"/>
       <c r="AO62" s="4"/>
       <c r="AP62" s="4"/>
       <c r="AQ62" s="4"/>
@@ -12718,48 +12579,48 @@
       </c>
     </row>
     <row r="63" spans="1:47">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="23" t="s">
         <v>276</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
       </c>
-      <c r="D63" s="21"/>
+      <c r="D63" s="24"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="21"/>
+      <c r="J63" s="24"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="15"/>
       <c r="N63" s="4"/>
       <c r="O63" s="5"/>
-      <c r="P63" s="21"/>
+      <c r="P63" s="24"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="15"/>
       <c r="T63" s="4"/>
       <c r="U63" s="5"/>
-      <c r="V63" s="21"/>
+      <c r="V63" s="24"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="15"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="5"/>
-      <c r="AB63" s="21"/>
+      <c r="AB63" s="24"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
       <c r="AG63" s="5"/>
-      <c r="AH63" s="21"/>
+      <c r="AH63" s="24"/>
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4"/>
       <c r="AL63" s="4"/>
       <c r="AM63" s="5"/>
-      <c r="AN63" s="21"/>
+      <c r="AN63" s="24"/>
       <c r="AO63" s="4"/>
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
@@ -12775,48 +12636,48 @@
       </c>
     </row>
     <row r="64" spans="1:47">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="23" t="s">
         <v>284</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
       </c>
-      <c r="D64" s="21"/>
+      <c r="D64" s="24"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="21"/>
+      <c r="J64" s="24"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="15"/>
       <c r="N64" s="4"/>
       <c r="O64" s="5"/>
-      <c r="P64" s="21"/>
+      <c r="P64" s="24"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="15"/>
       <c r="T64" s="4"/>
       <c r="U64" s="5"/>
-      <c r="V64" s="21"/>
+      <c r="V64" s="24"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="15"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="5"/>
-      <c r="AB64" s="21"/>
+      <c r="AB64" s="24"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
       <c r="AG64" s="5"/>
-      <c r="AH64" s="21"/>
+      <c r="AH64" s="24"/>
       <c r="AI64" s="4"/>
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4"/>
       <c r="AL64" s="4"/>
       <c r="AM64" s="5"/>
-      <c r="AN64" s="21"/>
+      <c r="AN64" s="24"/>
       <c r="AO64" s="4"/>
       <c r="AP64" s="4"/>
       <c r="AQ64" s="4"/>
@@ -12832,16 +12693,16 @@
       </c>
     </row>
     <row r="65" spans="1:47">
-      <c r="A65" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>432</v>
+      <c r="A65" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>439</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D65" s="24">
         <v>15</v>
       </c>
       <c r="E65" s="4">
@@ -12851,10 +12712,10 @@
         <v>878985</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="21">
+      <c r="J65" s="24">
         <v>5</v>
       </c>
       <c r="K65" s="4">
@@ -12864,17 +12725,17 @@
         <v>442700</v>
       </c>
       <c r="M65" s="15" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="5"/>
-      <c r="P65" s="21"/>
+      <c r="P65" s="24"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
       <c r="S65" s="15"/>
       <c r="T65" s="4"/>
       <c r="U65" s="5"/>
-      <c r="V65" s="21">
+      <c r="V65" s="24">
         <v>5</v>
       </c>
       <c r="W65" s="4">
@@ -12884,23 +12745,23 @@
         <v>477360</v>
       </c>
       <c r="Y65" s="15" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Z65" s="4"/>
       <c r="AA65" s="5"/>
-      <c r="AB65" s="21"/>
+      <c r="AB65" s="24"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
       <c r="AG65" s="5"/>
-      <c r="AH65" s="21"/>
+      <c r="AH65" s="24"/>
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4"/>
       <c r="AL65" s="4"/>
       <c r="AM65" s="5"/>
-      <c r="AN65" s="21"/>
+      <c r="AN65" s="24"/>
       <c r="AO65" s="4"/>
       <c r="AP65" s="4"/>
       <c r="AQ65" s="4"/>
@@ -12916,24 +12777,24 @@
       </c>
     </row>
     <row r="66" spans="1:47">
-      <c r="A66" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>437</v>
+      <c r="A66" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>444</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="24"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="21"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="15"/>
       <c r="N66" s="4"/>
       <c r="O66" s="5"/>
-      <c r="P66" s="21">
+      <c r="P66" s="24">
         <v>5</v>
       </c>
       <c r="Q66" s="4">
@@ -12943,11 +12804,11 @@
         <v>310000</v>
       </c>
       <c r="S66" s="15" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="T66" s="4"/>
       <c r="U66" s="5"/>
-      <c r="V66" s="21">
+      <c r="V66" s="24">
         <v>5</v>
       </c>
       <c r="W66" s="4">
@@ -12957,23 +12818,23 @@
         <v>270000</v>
       </c>
       <c r="Y66" s="15" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="Z66" s="4"/>
       <c r="AA66" s="5"/>
-      <c r="AB66" s="21"/>
+      <c r="AB66" s="24"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
       <c r="AG66" s="5"/>
-      <c r="AH66" s="21"/>
+      <c r="AH66" s="24"/>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
       <c r="AL66" s="4"/>
       <c r="AM66" s="5"/>
-      <c r="AN66" s="21"/>
+      <c r="AN66" s="24"/>
       <c r="AO66" s="4"/>
       <c r="AP66" s="4"/>
       <c r="AQ66" s="4"/>
@@ -12989,16 +12850,16 @@
       </c>
     </row>
     <row r="67" spans="1:47">
-      <c r="A67" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>441</v>
+      <c r="A67" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>448</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="24">
         <v>5</v>
       </c>
       <c r="E67" s="4">
@@ -13008,10 +12869,10 @@
         <v>455000</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="I67" s="5"/>
-      <c r="J67" s="21">
+      <c r="J67" s="24">
         <v>5</v>
       </c>
       <c r="K67" s="4">
@@ -13021,11 +12882,11 @@
         <v>460000</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="N67" s="4"/>
       <c r="O67" s="5"/>
-      <c r="P67" s="21">
+      <c r="P67" s="24">
         <v>5</v>
       </c>
       <c r="Q67" s="4">
@@ -13035,11 +12896,11 @@
         <v>445000</v>
       </c>
       <c r="S67" s="15" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="T67" s="4"/>
       <c r="U67" s="5"/>
-      <c r="V67" s="21">
+      <c r="V67" s="24">
         <v>5</v>
       </c>
       <c r="W67" s="4">
@@ -13049,23 +12910,23 @@
         <v>490000</v>
       </c>
       <c r="Y67" s="15" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="Z67" s="4"/>
       <c r="AA67" s="5"/>
-      <c r="AB67" s="21"/>
+      <c r="AB67" s="24"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
       <c r="AG67" s="5"/>
-      <c r="AH67" s="21"/>
+      <c r="AH67" s="24"/>
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
       <c r="AM67" s="5"/>
-      <c r="AN67" s="21"/>
+      <c r="AN67" s="24"/>
       <c r="AO67" s="4"/>
       <c r="AP67" s="4"/>
       <c r="AQ67" s="4"/>
@@ -13081,11 +12942,11 @@
       </c>
     </row>
     <row r="68" spans="1:47">
-      <c r="A68" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>447</v>
+      <c r="A68" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>454</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
@@ -13120,11 +12981,11 @@
       </c>
     </row>
     <row r="69" spans="1:45">
-      <c r="A69" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>449</v>
+      <c r="A69" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>456</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
@@ -13138,11 +12999,11 @@
       <c r="AS69" s="5"/>
     </row>
     <row r="70" spans="1:45">
-      <c r="A70" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B70" s="22" t="s">
-        <v>451</v>
+      <c r="A70" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>458</v>
       </c>
       <c r="C70" s="5">
         <v>1</v>
@@ -13156,11 +13017,11 @@
       <c r="AS70" s="5"/>
     </row>
     <row r="71" spans="1:45">
-      <c r="A71" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>453</v>
+      <c r="A71" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>460</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -13194,7 +13055,7 @@
       <c r="AS73" s="5"/>
     </row>
     <row r="74" spans="2:45">
-      <c r="B74" s="23"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="5"/>
       <c r="I74" s="5"/>
       <c r="O74" s="5"/>
@@ -13225,7 +13086,7 @@
       <c r="AS76" s="5"/>
     </row>
     <row r="77" spans="2:45">
-      <c r="B77" s="23"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="5"/>
       <c r="I77" s="5"/>
       <c r="O77" s="5"/>
@@ -13418,6 +13279,15 @@
       <c r="O96" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AH1:AM1"/>
+    <mergeCell ref="AN1:AS1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
